--- a/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.09526223372774</v>
+        <v>17.09526223372773</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.90604331971549</v>
+        <v>13.90604331971557</v>
       </c>
       <c r="E2">
-        <v>30.7456629839266</v>
+        <v>30.7456629839265</v>
       </c>
       <c r="F2">
-        <v>68.05279204312779</v>
+        <v>68.0527920431276</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.39926308862389</v>
+        <v>17.39926308862375</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>41.45315325302182</v>
+        <v>41.45315325302172</v>
       </c>
       <c r="L2">
-        <v>33.79436050557906</v>
+        <v>33.794360505579</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.77543396180357</v>
+        <v>15.77543396180356</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.5950766667369</v>
+        <v>12.59507666673695</v>
       </c>
       <c r="E3">
-        <v>28.36172235425595</v>
+        <v>28.36172235425614</v>
       </c>
       <c r="F3">
-        <v>61.82151154309665</v>
+        <v>61.82151154309709</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.26792662768034</v>
+        <v>16.26792662768047</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>38.08993300683952</v>
+        <v>38.0899330068398</v>
       </c>
       <c r="L3">
-        <v>31.10241915175647</v>
+        <v>31.10241915175664</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.94213759016621</v>
+        <v>14.94213759016616</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.79880326011633</v>
+        <v>11.79880326011627</v>
       </c>
       <c r="E4">
-        <v>26.8837690391081</v>
+        <v>26.88376903910796</v>
       </c>
       <c r="F4">
-        <v>58.08297560568015</v>
+        <v>58.08297560567969</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.56744774634683</v>
+        <v>15.56744774634678</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.99380321814174</v>
+        <v>35.99380321814165</v>
       </c>
       <c r="L4">
-        <v>29.41974985221251</v>
+        <v>29.41974985221242</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.59581002890664</v>
+        <v>14.59581002890669</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.47424136132644</v>
+        <v>11.47424136132635</v>
       </c>
       <c r="E5">
-        <v>26.27488170339494</v>
+        <v>26.27488170339487</v>
       </c>
       <c r="F5">
-        <v>56.57165109425188</v>
+        <v>56.57165109425168</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.27934921170321</v>
+        <v>15.2793492117032</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35.12791050050019</v>
+        <v>35.1279105005002</v>
       </c>
       <c r="L5">
-        <v>28.72367646955721</v>
+        <v>28.72367646955726</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.5378709483882</v>
+        <v>14.53787094838827</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.42029028271134</v>
+        <v>11.42029028271141</v>
       </c>
       <c r="E6">
-        <v>26.17330594800291</v>
+        <v>26.17330594800292</v>
       </c>
       <c r="F6">
-        <v>56.32120718458827</v>
+        <v>56.32120718458855</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.23132419892911</v>
+        <v>15.23132419892912</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.98332981163698</v>
+        <v>34.98332981163684</v>
       </c>
       <c r="L6">
-        <v>28.60739853981486</v>
+        <v>28.60739853981481</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.93749534381722</v>
+        <v>14.93749534381719</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.79442889042963</v>
+        <v>11.79442889042957</v>
       </c>
       <c r="E7">
         <v>26.87558745945536</v>
       </c>
       <c r="F7">
-        <v>58.0625546349546</v>
+        <v>58.06255463495445</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.56357431784174</v>
+        <v>15.56357431784181</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.98217719793612</v>
+        <v>35.98217719793616</v>
       </c>
       <c r="L7">
-        <v>29.41040756920778</v>
+        <v>29.4104075692078</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.64424408352848</v>
+        <v>16.64424408352857</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.45061690184019</v>
+        <v>13.45061690184035</v>
       </c>
       <c r="E8">
-        <v>29.92444985317842</v>
+        <v>29.92444985317847</v>
       </c>
       <c r="F8">
-        <v>65.87890910027015</v>
+        <v>65.87890910027052</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.00952097773525</v>
+        <v>17.00952097773524</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>40.29722295897196</v>
       </c>
       <c r="L8">
-        <v>32.87033239725879</v>
+        <v>32.87033239725884</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.93328011059493</v>
+        <v>16.93328011059489</v>
       </c>
       <c r="E9">
-        <v>36.01778242866843</v>
+        <v>36.01778242866835</v>
       </c>
       <c r="F9">
-        <v>82.66068636138148</v>
+        <v>82.66068636138164</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.89202450073233</v>
+        <v>19.89202450073228</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>48.7924221654272</v>
+        <v>48.79242216542723</v>
       </c>
       <c r="L9">
-        <v>39.62573287502546</v>
+        <v>39.62573287502549</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.39796741798516</v>
+        <v>22.39796741798503</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.15194926957685</v>
+        <v>20.15194926957689</v>
       </c>
       <c r="E10">
-        <v>41.28236506222928</v>
+        <v>41.28236506222942</v>
       </c>
       <c r="F10">
-        <v>98.28465298111672</v>
+        <v>98.28465298111681</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.34371580948539</v>
+        <v>22.34371580948549</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>55.90446823044003</v>
+        <v>55.90446823044002</v>
       </c>
       <c r="L10">
-        <v>45.19696337780768</v>
+        <v>45.19696337780761</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.75568402637739</v>
+        <v>23.75568402637732</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>22.23149742622302</v>
+        <v>22.23149742622308</v>
       </c>
       <c r="E11">
         <v>44.51540941337031</v>
       </c>
       <c r="F11">
-        <v>108.302742702371</v>
+        <v>108.3027427023711</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>60.08689656437723</v>
+        <v>60.08689656437728</v>
       </c>
       <c r="L11">
         <v>48.41976272762931</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.39003545622799</v>
+        <v>24.39003545622787</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.34765763146627</v>
+        <v>23.34765763146599</v>
       </c>
       <c r="E12">
-        <v>46.20360486675719</v>
+        <v>46.20360486675678</v>
       </c>
       <c r="F12">
-        <v>113.6220901963366</v>
+        <v>113.6220901963349</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.58201943959429</v>
+        <v>24.58201943959408</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>62.18696348406918</v>
+        <v>62.18696348406881</v>
       </c>
       <c r="L12">
-        <v>50.0176890454752</v>
+        <v>50.01768904547488</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.24189108598473</v>
+        <v>24.24189108598458</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>23.07592749100328</v>
+        <v>23.07592749100324</v>
       </c>
       <c r="E13">
-        <v>45.79535901591527</v>
+        <v>45.7953590159152</v>
       </c>
       <c r="F13">
-        <v>112.3318696335439</v>
+        <v>112.3318696335433</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.39854278093432</v>
+        <v>24.39854278093429</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>61.68539919355305</v>
+        <v>61.68539919355302</v>
       </c>
       <c r="L13">
-        <v>49.63748075218363</v>
+        <v>49.63748075218354</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.80372576414827</v>
+        <v>23.80372576414836</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>22.31204217449747</v>
+        <v>22.31204217449766</v>
       </c>
       <c r="E14">
-        <v>44.63826124675621</v>
+        <v>44.63826124675669</v>
       </c>
       <c r="F14">
-        <v>108.6882303650543</v>
+        <v>108.6882303650561</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.87633123983573</v>
+        <v>23.87633123983604</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>60.24192952233084</v>
+        <v>60.24192952233138</v>
       </c>
       <c r="L14">
-        <v>48.53824270344985</v>
+        <v>48.53824270345024</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.55812927268784</v>
+        <v>23.5581292726878</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.90619320047546</v>
+        <v>21.90619320047544</v>
       </c>
       <c r="E15">
-        <v>44.01752555103322</v>
+        <v>44.01752555103293</v>
       </c>
       <c r="F15">
-        <v>106.7435620299378</v>
+        <v>106.7435620299368</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.59485218871972</v>
+        <v>23.59485218871953</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>59.45534183021406</v>
+        <v>59.45534183021376</v>
       </c>
       <c r="L15">
-        <v>47.93632266736624</v>
+        <v>47.93632266736606</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.31701442680613</v>
+        <v>22.31701442680617</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>20.03770633525525</v>
+        <v>20.03770633525529</v>
       </c>
       <c r="E16">
-        <v>41.10113803381607</v>
+        <v>41.10113803381594</v>
       </c>
       <c r="F16">
         <v>97.73148559359359</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.26021603581638</v>
+        <v>22.2602160358163</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>55.66496914203859</v>
+        <v>55.66496914203849</v>
       </c>
       <c r="L16">
-        <v>45.01103128386267</v>
+        <v>45.01103128386268</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.63028204349229</v>
+        <v>21.63028204349235</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.10239277227737</v>
+        <v>19.10239277227751</v>
       </c>
       <c r="E17">
-        <v>39.60232636294177</v>
+        <v>39.60232636294202</v>
       </c>
       <c r="F17">
-        <v>93.19597048252849</v>
+        <v>93.19597048252925</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.56697492075048</v>
+        <v>21.56697492075067</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>53.66751361524046</v>
+        <v>53.66751361524065</v>
       </c>
       <c r="L17">
-        <v>43.45529880529679</v>
+        <v>43.45529880529696</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.24943113450798</v>
+        <v>21.24943113450794</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>18.60680505291443</v>
       </c>
       <c r="E18">
-        <v>38.79697905971493</v>
+        <v>38.79697905971483</v>
       </c>
       <c r="F18">
-        <v>90.78940812261831</v>
+        <v>90.78940812261813</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.1926162532675</v>
+        <v>21.19261625326748</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>52.58311820424372</v>
+        <v>52.58311820424358</v>
       </c>
       <c r="L18">
-        <v>42.60720559068866</v>
+        <v>42.60720559068857</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.12225172334718</v>
+        <v>21.1222517233472</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.44456904522947</v>
+        <v>18.44456904522969</v>
       </c>
       <c r="E19">
-        <v>38.53161741777414</v>
+        <v>38.53161741777434</v>
       </c>
       <c r="F19">
-        <v>90.00131539181552</v>
+        <v>90.00131539181587</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.06899751893857</v>
+        <v>21.06899751893865</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>52.2242825270785</v>
+        <v>52.22428252707849</v>
       </c>
       <c r="L19">
-        <v>42.32605982886749</v>
+        <v>42.3260598288675</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70174509057599</v>
+        <v>21.70174509057604</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.19710831501505</v>
+        <v>19.19710831501517</v>
       </c>
       <c r="E20">
-        <v>39.75534935756616</v>
+        <v>39.75534935756618</v>
       </c>
       <c r="F20">
-        <v>93.65570490347625</v>
+        <v>93.65570490347648</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.63796365578331</v>
+        <v>21.63796365578332</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>53.87272870902837</v>
+        <v>53.87272870902861</v>
       </c>
       <c r="L20">
-        <v>43.61552830903068</v>
+        <v>43.61552830903087</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.92680313756692</v>
+        <v>23.92680313756697</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>22.52111837402909</v>
       </c>
       <c r="E21">
-        <v>44.95638876482572</v>
+        <v>44.95638876482582</v>
       </c>
       <c r="F21">
-        <v>109.6877687128636</v>
+        <v>109.6877687128635</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.02022848979976</v>
+        <v>24.02022848979983</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>60.64185891260057</v>
+        <v>60.64185891260053</v>
       </c>
       <c r="L21">
-        <v>48.84351420464564</v>
+        <v>48.84351420464567</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.92680313756692</v>
+        <v>23.92680313756697</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>22.52111837402909</v>
       </c>
       <c r="E22">
-        <v>44.95638876482572</v>
+        <v>44.95638876482582</v>
       </c>
       <c r="F22">
-        <v>109.6877687128636</v>
+        <v>109.6877687128635</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.02022848979976</v>
+        <v>24.02022848979983</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>60.64185891260057</v>
+        <v>60.64185891260053</v>
       </c>
       <c r="L22">
-        <v>48.84351420464564</v>
+        <v>48.84351420464567</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.91124821095134</v>
+        <v>24.91124821095155</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>24.37213574251757</v>
+        <v>24.37213574251821</v>
       </c>
       <c r="E23">
-        <v>47.72828653655608</v>
+        <v>47.72828653655675</v>
       </c>
       <c r="F23">
-        <v>118.4538332321539</v>
+        <v>118.4538332321566</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.26379205727257</v>
+        <v>25.26379205727277</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>64.02002955552692</v>
+        <v>64.02002955552754</v>
       </c>
       <c r="L23">
-        <v>51.39869391043662</v>
+        <v>51.39869391043713</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.66939571720024</v>
+        <v>21.6693957172003</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.15416289133612</v>
+        <v>19.15416289133616</v>
       </c>
       <c r="E24">
-        <v>39.68600170756329</v>
+        <v>39.68600170756333</v>
       </c>
       <c r="F24">
-        <v>93.44726419845506</v>
+        <v>93.4472641984547</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.60579843177713</v>
+        <v>21.60579843177719</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>53.77976244938952</v>
+        <v>53.77976244938948</v>
       </c>
       <c r="L24">
-        <v>43.54295215054199</v>
+        <v>43.542952150542</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.93438638421691</v>
+        <v>15.93438638421681</v>
       </c>
       <c r="E25">
-        <v>34.31363947205421</v>
+        <v>34.31363947205408</v>
       </c>
       <c r="F25">
-        <v>77.8187960937414</v>
+        <v>77.81879609374101</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.0890308639478</v>
+        <v>19.08903086394777</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>46.43789398162218</v>
+        <v>46.43789398162208</v>
       </c>
       <c r="L25">
-        <v>37.76243601976238</v>
+        <v>37.7624360197623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.09526223372773</v>
+        <v>17.09526223372774</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.90604331971557</v>
+        <v>13.90604331971549</v>
       </c>
       <c r="E2">
-        <v>30.7456629839265</v>
+        <v>30.7456629839266</v>
       </c>
       <c r="F2">
-        <v>68.0527920431276</v>
+        <v>68.05279204312779</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,16 +433,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.39926308862375</v>
+        <v>17.39926308862389</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>41.45315325302172</v>
+        <v>41.45315325302182</v>
       </c>
       <c r="L2">
-        <v>33.794360505579</v>
+        <v>33.79436050557906</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.77543396180356</v>
+        <v>15.77543396180357</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.59507666673695</v>
+        <v>12.5950766667369</v>
       </c>
       <c r="E3">
-        <v>28.36172235425614</v>
+        <v>28.36172235425595</v>
       </c>
       <c r="F3">
-        <v>61.82151154309709</v>
+        <v>61.82151154309665</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.26792662768047</v>
+        <v>16.26792662768034</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>38.0899330068398</v>
+        <v>38.08993300683952</v>
       </c>
       <c r="L3">
-        <v>31.10241915175664</v>
+        <v>31.10241915175647</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.94213759016616</v>
+        <v>14.94213759016621</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.79880326011627</v>
+        <v>11.79880326011633</v>
       </c>
       <c r="E4">
-        <v>26.88376903910796</v>
+        <v>26.8837690391081</v>
       </c>
       <c r="F4">
-        <v>58.08297560567969</v>
+        <v>58.08297560568015</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.56744774634678</v>
+        <v>15.56744774634683</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>35.99380321814165</v>
+        <v>35.99380321814174</v>
       </c>
       <c r="L4">
-        <v>29.41974985221242</v>
+        <v>29.41974985221251</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.59581002890669</v>
+        <v>14.59581002890664</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.47424136132635</v>
+        <v>11.47424136132644</v>
       </c>
       <c r="E5">
-        <v>26.27488170339487</v>
+        <v>26.27488170339494</v>
       </c>
       <c r="F5">
-        <v>56.57165109425168</v>
+        <v>56.57165109425188</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,16 +547,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.2793492117032</v>
+        <v>15.27934921170321</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35.1279105005002</v>
+        <v>35.12791050050019</v>
       </c>
       <c r="L5">
-        <v>28.72367646955726</v>
+        <v>28.72367646955721</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.53787094838827</v>
+        <v>14.5378709483882</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.42029028271141</v>
+        <v>11.42029028271134</v>
       </c>
       <c r="E6">
-        <v>26.17330594800292</v>
+        <v>26.17330594800291</v>
       </c>
       <c r="F6">
-        <v>56.32120718458855</v>
+        <v>56.32120718458827</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.23132419892912</v>
+        <v>15.23132419892911</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>34.98332981163684</v>
+        <v>34.98332981163698</v>
       </c>
       <c r="L6">
-        <v>28.60739853981481</v>
+        <v>28.60739853981486</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.93749534381719</v>
+        <v>14.93749534381722</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.79442889042957</v>
+        <v>11.79442889042963</v>
       </c>
       <c r="E7">
         <v>26.87558745945536</v>
       </c>
       <c r="F7">
-        <v>58.06255463495445</v>
+        <v>58.0625546349546</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.56357431784181</v>
+        <v>15.56357431784174</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>35.98217719793616</v>
+        <v>35.98217719793612</v>
       </c>
       <c r="L7">
-        <v>29.4104075692078</v>
+        <v>29.41040756920778</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.64424408352857</v>
+        <v>16.64424408352848</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.45061690184035</v>
+        <v>13.45061690184019</v>
       </c>
       <c r="E8">
-        <v>29.92444985317847</v>
+        <v>29.92444985317842</v>
       </c>
       <c r="F8">
-        <v>65.87890910027052</v>
+        <v>65.87890910027015</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.00952097773524</v>
+        <v>17.00952097773525</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>40.29722295897196</v>
       </c>
       <c r="L8">
-        <v>32.87033239725884</v>
+        <v>32.87033239725879</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.93328011059489</v>
+        <v>16.93328011059493</v>
       </c>
       <c r="E9">
-        <v>36.01778242866835</v>
+        <v>36.01778242866843</v>
       </c>
       <c r="F9">
-        <v>82.66068636138164</v>
+        <v>82.66068636138148</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.89202450073228</v>
+        <v>19.89202450073233</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>48.79242216542723</v>
+        <v>48.7924221654272</v>
       </c>
       <c r="L9">
-        <v>39.62573287502549</v>
+        <v>39.62573287502546</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.39796741798503</v>
+        <v>22.39796741798516</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.15194926957689</v>
+        <v>20.15194926957685</v>
       </c>
       <c r="E10">
-        <v>41.28236506222942</v>
+        <v>41.28236506222928</v>
       </c>
       <c r="F10">
-        <v>98.28465298111681</v>
+        <v>98.28465298111672</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.34371580948549</v>
+        <v>22.34371580948539</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>55.90446823044002</v>
+        <v>55.90446823044003</v>
       </c>
       <c r="L10">
-        <v>45.19696337780761</v>
+        <v>45.19696337780768</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.75568402637732</v>
+        <v>23.75568402637739</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>22.23149742622308</v>
+        <v>22.23149742622302</v>
       </c>
       <c r="E11">
         <v>44.51540941337031</v>
       </c>
       <c r="F11">
-        <v>108.3027427023711</v>
+        <v>108.302742702371</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>60.08689656437728</v>
+        <v>60.08689656437723</v>
       </c>
       <c r="L11">
         <v>48.41976272762931</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.39003545622787</v>
+        <v>24.39003545622799</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.34765763146599</v>
+        <v>23.34765763146627</v>
       </c>
       <c r="E12">
-        <v>46.20360486675678</v>
+        <v>46.20360486675719</v>
       </c>
       <c r="F12">
-        <v>113.6220901963349</v>
+        <v>113.6220901963366</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,16 +813,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.58201943959408</v>
+        <v>24.58201943959429</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>62.18696348406881</v>
+        <v>62.18696348406918</v>
       </c>
       <c r="L12">
-        <v>50.01768904547488</v>
+        <v>50.0176890454752</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.24189108598458</v>
+        <v>24.24189108598473</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>23.07592749100324</v>
+        <v>23.07592749100328</v>
       </c>
       <c r="E13">
-        <v>45.7953590159152</v>
+        <v>45.79535901591527</v>
       </c>
       <c r="F13">
-        <v>112.3318696335433</v>
+        <v>112.3318696335439</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.39854278093429</v>
+        <v>24.39854278093432</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>61.68539919355302</v>
+        <v>61.68539919355305</v>
       </c>
       <c r="L13">
-        <v>49.63748075218354</v>
+        <v>49.63748075218363</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.80372576414836</v>
+        <v>23.80372576414827</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>22.31204217449766</v>
+        <v>22.31204217449747</v>
       </c>
       <c r="E14">
-        <v>44.63826124675669</v>
+        <v>44.63826124675621</v>
       </c>
       <c r="F14">
-        <v>108.6882303650561</v>
+        <v>108.6882303650543</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.87633123983604</v>
+        <v>23.87633123983573</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>60.24192952233138</v>
+        <v>60.24192952233084</v>
       </c>
       <c r="L14">
-        <v>48.53824270345024</v>
+        <v>48.53824270344985</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.5581292726878</v>
+        <v>23.55812927268784</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.90619320047544</v>
+        <v>21.90619320047546</v>
       </c>
       <c r="E15">
-        <v>44.01752555103293</v>
+        <v>44.01752555103322</v>
       </c>
       <c r="F15">
-        <v>106.7435620299368</v>
+        <v>106.7435620299378</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.59485218871953</v>
+        <v>23.59485218871972</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>59.45534183021376</v>
+        <v>59.45534183021406</v>
       </c>
       <c r="L15">
-        <v>47.93632266736606</v>
+        <v>47.93632266736624</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.31701442680617</v>
+        <v>22.31701442680613</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>20.03770633525529</v>
+        <v>20.03770633525525</v>
       </c>
       <c r="E16">
-        <v>41.10113803381594</v>
+        <v>41.10113803381607</v>
       </c>
       <c r="F16">
         <v>97.73148559359359</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.2602160358163</v>
+        <v>22.26021603581638</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>55.66496914203849</v>
+        <v>55.66496914203859</v>
       </c>
       <c r="L16">
-        <v>45.01103128386268</v>
+        <v>45.01103128386267</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.63028204349235</v>
+        <v>21.63028204349229</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.10239277227751</v>
+        <v>19.10239277227737</v>
       </c>
       <c r="E17">
-        <v>39.60232636294202</v>
+        <v>39.60232636294177</v>
       </c>
       <c r="F17">
-        <v>93.19597048252925</v>
+        <v>93.19597048252849</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.56697492075067</v>
+        <v>21.56697492075048</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>53.66751361524065</v>
+        <v>53.66751361524046</v>
       </c>
       <c r="L17">
-        <v>43.45529880529696</v>
+        <v>43.45529880529679</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.24943113450794</v>
+        <v>21.24943113450798</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>18.60680505291443</v>
       </c>
       <c r="E18">
-        <v>38.79697905971483</v>
+        <v>38.79697905971493</v>
       </c>
       <c r="F18">
-        <v>90.78940812261813</v>
+        <v>90.78940812261831</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.19261625326748</v>
+        <v>21.1926162532675</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>52.58311820424358</v>
+        <v>52.58311820424372</v>
       </c>
       <c r="L18">
-        <v>42.60720559068857</v>
+        <v>42.60720559068866</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.1222517233472</v>
+        <v>21.12225172334718</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.44456904522969</v>
+        <v>18.44456904522947</v>
       </c>
       <c r="E19">
-        <v>38.53161741777434</v>
+        <v>38.53161741777414</v>
       </c>
       <c r="F19">
-        <v>90.00131539181587</v>
+        <v>90.00131539181552</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.06899751893865</v>
+        <v>21.06899751893857</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>52.22428252707849</v>
+        <v>52.2242825270785</v>
       </c>
       <c r="L19">
-        <v>42.3260598288675</v>
+        <v>42.32605982886749</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70174509057604</v>
+        <v>21.70174509057599</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.19710831501517</v>
+        <v>19.19710831501505</v>
       </c>
       <c r="E20">
-        <v>39.75534935756618</v>
+        <v>39.75534935756616</v>
       </c>
       <c r="F20">
-        <v>93.65570490347648</v>
+        <v>93.65570490347625</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.63796365578332</v>
+        <v>21.63796365578331</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>53.87272870902861</v>
+        <v>53.87272870902837</v>
       </c>
       <c r="L20">
-        <v>43.61552830903087</v>
+        <v>43.61552830903068</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.92680313756697</v>
+        <v>23.92680313756692</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1143,10 +1143,10 @@
         <v>22.52111837402909</v>
       </c>
       <c r="E21">
-        <v>44.95638876482582</v>
+        <v>44.95638876482572</v>
       </c>
       <c r="F21">
-        <v>109.6877687128635</v>
+        <v>109.6877687128636</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.02022848979983</v>
+        <v>24.02022848979976</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>60.64185891260053</v>
+        <v>60.64185891260057</v>
       </c>
       <c r="L21">
-        <v>48.84351420464567</v>
+        <v>48.84351420464564</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.92680313756697</v>
+        <v>23.92680313756692</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>22.52111837402909</v>
       </c>
       <c r="E22">
-        <v>44.95638876482582</v>
+        <v>44.95638876482572</v>
       </c>
       <c r="F22">
-        <v>109.6877687128635</v>
+        <v>109.6877687128636</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.02022848979983</v>
+        <v>24.02022848979976</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>60.64185891260053</v>
+        <v>60.64185891260057</v>
       </c>
       <c r="L22">
-        <v>48.84351420464567</v>
+        <v>48.84351420464564</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.91124821095155</v>
+        <v>24.91124821095134</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>24.37213574251821</v>
+        <v>24.37213574251757</v>
       </c>
       <c r="E23">
-        <v>47.72828653655675</v>
+        <v>47.72828653655608</v>
       </c>
       <c r="F23">
-        <v>118.4538332321566</v>
+        <v>118.4538332321539</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.26379205727277</v>
+        <v>25.26379205727257</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>64.02002955552754</v>
+        <v>64.02002955552692</v>
       </c>
       <c r="L23">
-        <v>51.39869391043713</v>
+        <v>51.39869391043662</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.6693957172003</v>
+        <v>21.66939571720024</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.15416289133616</v>
+        <v>19.15416289133612</v>
       </c>
       <c r="E24">
-        <v>39.68600170756333</v>
+        <v>39.68600170756329</v>
       </c>
       <c r="F24">
-        <v>93.4472641984547</v>
+        <v>93.44726419845506</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.60579843177719</v>
+        <v>21.60579843177713</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>53.77976244938948</v>
+        <v>53.77976244938952</v>
       </c>
       <c r="L24">
-        <v>43.542952150542</v>
+        <v>43.54295215054199</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1292,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.93438638421681</v>
+        <v>15.93438638421691</v>
       </c>
       <c r="E25">
-        <v>34.31363947205408</v>
+        <v>34.31363947205421</v>
       </c>
       <c r="F25">
-        <v>77.81879609374101</v>
+        <v>77.8187960937414</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.08903086394777</v>
+        <v>19.0890308639478</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>46.43789398162208</v>
+        <v>46.43789398162218</v>
       </c>
       <c r="L25">
-        <v>37.7624360197623</v>
+        <v>37.76243601976238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.09526223372774</v>
+        <v>17.03696271206394</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.90604331971549</v>
+        <v>13.71128489872936</v>
       </c>
       <c r="E2">
-        <v>30.7456629839266</v>
+        <v>30.41307629884813</v>
       </c>
       <c r="F2">
-        <v>68.05279204312779</v>
+        <v>67.52497157379254</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.883304920396399</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.39926308862389</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>17.22269301715189</v>
       </c>
       <c r="K2">
-        <v>41.45315325302182</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>33.79436050557906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>41.18105028792086</v>
+      </c>
+      <c r="M2">
+        <v>33.58370328797564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.77543396180357</v>
+        <v>15.72438179384858</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.5950766667369</v>
+        <v>12.42081738574157</v>
       </c>
       <c r="E3">
-        <v>28.36172235425595</v>
+        <v>28.04437904570784</v>
       </c>
       <c r="F3">
-        <v>61.82151154309665</v>
+        <v>61.42367312393336</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.923245468054582</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.26792662768034</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>16.0941510450229</v>
       </c>
       <c r="K3">
-        <v>38.08993300683952</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>31.10241915175647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>37.84464131737278</v>
+      </c>
+      <c r="M3">
+        <v>30.90971757768401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.94213759016621</v>
+        <v>14.89527601890032</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.79880326011633</v>
+        <v>11.63659397292921</v>
       </c>
       <c r="E4">
-        <v>26.8837690391081</v>
+        <v>26.57347993706549</v>
       </c>
       <c r="F4">
-        <v>58.08297560568015</v>
+        <v>57.76583072688489</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.946851580788397</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.56744774634683</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>15.3941874311756</v>
       </c>
       <c r="K4">
-        <v>35.99380321814174</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>29.41974985221251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>35.76341772603296</v>
+      </c>
+      <c r="M4">
+        <v>29.23678408900695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.59581002890664</v>
+        <v>14.55063088797791</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.47424136132644</v>
+        <v>11.31691738969233</v>
       </c>
       <c r="E5">
-        <v>26.27488170339494</v>
+        <v>25.96701004750192</v>
       </c>
       <c r="F5">
-        <v>56.57165109425188</v>
+        <v>56.28817646745136</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.956327123550957</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.27934921170321</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>15.1060485027199</v>
       </c>
       <c r="K5">
-        <v>35.12791050050019</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>28.72367646955721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>34.90336623966848</v>
+      </c>
+      <c r="M5">
+        <v>28.54446545965491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.5378709483882</v>
+        <v>14.49297055845243</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.42029028271134</v>
+        <v>11.26377853112715</v>
       </c>
       <c r="E6">
-        <v>26.17330594800291</v>
+        <v>25.86581056432486</v>
       </c>
       <c r="F6">
-        <v>56.32120718458827</v>
+        <v>56.04338433523846</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.957893888381611</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.23132419892911</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>15.05800271017947</v>
       </c>
       <c r="K6">
-        <v>34.98332981163698</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>28.60739853981486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>34.75974487924441</v>
+      </c>
+      <c r="M6">
+        <v>28.42880056781421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.93749534381722</v>
+        <v>14.89065652214769</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.79442889042963</v>
+        <v>11.63228547191452</v>
       </c>
       <c r="E7">
-        <v>26.87558745945536</v>
+        <v>26.56533269309791</v>
       </c>
       <c r="F7">
-        <v>58.0625546349546</v>
+        <v>57.74586003873675</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.946979858821167</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.56357431784174</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>15.39031442165773</v>
       </c>
       <c r="K7">
-        <v>35.98217719793612</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>29.41040756920778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>35.75187126319562</v>
+      </c>
+      <c r="M7">
+        <v>29.22749319137742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.64424408352848</v>
+        <v>16.58852681594595</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.45061690184019</v>
+        <v>13.26311860340747</v>
       </c>
       <c r="E8">
-        <v>29.92444985317842</v>
+        <v>29.59769433496332</v>
       </c>
       <c r="F8">
-        <v>65.87890910027015</v>
+        <v>65.3961310940294</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.897328298600315</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.00952097773525</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.83420425788399</v>
       </c>
       <c r="K8">
-        <v>40.29722295897196</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>32.87033239725879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>40.03480688093379</v>
+      </c>
+      <c r="M8">
+        <v>32.66621883205828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.87979757226185</v>
+        <v>19.80115300150707</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.93328011059493</v>
+        <v>16.68241875999421</v>
       </c>
       <c r="E9">
-        <v>36.01778242866843</v>
+        <v>35.6281502052707</v>
       </c>
       <c r="F9">
-        <v>82.66068636138148</v>
+        <v>81.81316755364145</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.786401338483042</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.89202450073233</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>19.69798396793371</v>
       </c>
       <c r="K9">
-        <v>48.7924221654272</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>39.62573287502546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>48.44037184073372</v>
+      </c>
+      <c r="M9">
+        <v>39.35950917373201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.39796741798516</v>
+        <v>22.28347234044496</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>20.15194926957685</v>
+        <v>19.80382948903058</v>
       </c>
       <c r="E10">
-        <v>41.28236506222928</v>
+        <v>40.76843819759257</v>
       </c>
       <c r="F10">
-        <v>98.28465298111672</v>
+        <v>96.94559877350635</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.677797733875059</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.34371580948539</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>22.10145098064221</v>
       </c>
       <c r="K10">
-        <v>55.90446823044003</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>45.19696337780768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>55.40402702117737</v>
+      </c>
+      <c r="M10">
+        <v>44.82434393470177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.75568402637739</v>
+        <v>23.59474195422306</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>22.23149742622302</v>
+        <v>21.75728446724239</v>
       </c>
       <c r="E11">
-        <v>44.51540941337031</v>
+        <v>43.82628329767073</v>
       </c>
       <c r="F11">
-        <v>108.302742702371</v>
+        <v>106.3645420489882</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.606729938552971</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.82069665949562</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>23.50482483066613</v>
       </c>
       <c r="K11">
-        <v>60.08689656437723</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>48.41976272762931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>59.38993814092335</v>
+      </c>
+      <c r="M11">
+        <v>47.90436980158076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.39003545622799</v>
+        <v>24.18305328783188</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>23.34765763146627</v>
+        <v>22.74799290679196</v>
       </c>
       <c r="E12">
-        <v>46.20360486675719</v>
+        <v>45.3360063893533</v>
       </c>
       <c r="F12">
-        <v>113.6220901963366</v>
+        <v>111.1008098998907</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.569898358198368</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.58201943959429</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>24.18927237381268</v>
       </c>
       <c r="K12">
-        <v>62.18696348406918</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>50.0176890454752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>61.29384477146195</v>
+      </c>
+      <c r="M12">
+        <v>49.35917122004052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.24189108598473</v>
+        <v>24.04845618910732</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>23.07592749100328</v>
+        <v>22.51321529254523</v>
       </c>
       <c r="E13">
-        <v>45.79535901591527</v>
+        <v>44.98053631329516</v>
       </c>
       <c r="F13">
-        <v>112.3318696335439</v>
+        <v>109.9816320686719</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.578670760228142</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.39854278093432</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>24.02863009121825</v>
       </c>
       <c r="K13">
-        <v>61.68539919355305</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>49.63748075218363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>60.85007159283636</v>
+      </c>
+      <c r="M13">
+        <v>49.02116127723794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.80372576414827</v>
+        <v>23.6401789229599</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>22.31204217449747</v>
+        <v>21.8307425842865</v>
       </c>
       <c r="E14">
-        <v>44.63826124675621</v>
+        <v>43.93911962854195</v>
       </c>
       <c r="F14">
-        <v>108.6882303650543</v>
+        <v>106.716870659244</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.604016117026142</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.87633123983573</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>23.55617717553465</v>
       </c>
       <c r="K14">
-        <v>60.24192952233084</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>48.53824270344985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>59.53389567974838</v>
+      </c>
+      <c r="M14">
+        <v>48.01477894841478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.55812927268784</v>
+        <v>23.40688446293118</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.90619320047546</v>
+        <v>21.45834930173288</v>
       </c>
       <c r="E15">
-        <v>44.01752555103322</v>
+        <v>43.3655606939946</v>
       </c>
       <c r="F15">
-        <v>106.7435620299378</v>
+        <v>104.9290837481765</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.617744224788161</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.59485218871972</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>23.29482022576524</v>
       </c>
       <c r="K15">
-        <v>59.45534183021406</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>47.93632266736624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>58.79958068496342</v>
+      </c>
+      <c r="M15">
+        <v>47.45093504250035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.31701442680613</v>
+        <v>22.20429455511548</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>20.03770633525525</v>
+        <v>19.69439645687408</v>
       </c>
       <c r="E16">
-        <v>41.10113803381607</v>
+        <v>40.59370603492245</v>
       </c>
       <c r="F16">
-        <v>97.73148559359359</v>
+        <v>96.41582779016993</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.681712702261406</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.26021603581638</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>22.02060295405821</v>
       </c>
       <c r="K16">
-        <v>55.66496914203859</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>45.01103128386267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>55.17197970386456</v>
+      </c>
+      <c r="M16">
+        <v>44.64379973200212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.63028204349229</v>
+        <v>21.53029598439666</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.10239277227737</v>
+        <v>18.793580172273</v>
       </c>
       <c r="E17">
-        <v>39.60232636294177</v>
+        <v>39.14070896571631</v>
       </c>
       <c r="F17">
-        <v>93.19597048252849</v>
+        <v>92.05019351211014</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.713654097422589</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.56697492075048</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.34577286744757</v>
       </c>
       <c r="K17">
-        <v>53.66751361524046</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>43.45529880529679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>53.22774371155555</v>
+      </c>
+      <c r="M17">
+        <v>43.12644565512036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.24943113450798</v>
+        <v>21.15514421962007</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.60680505291443</v>
+        <v>18.31343827302785</v>
       </c>
       <c r="E18">
-        <v>38.79697905971493</v>
+        <v>38.35530913716065</v>
       </c>
       <c r="F18">
-        <v>90.78940812261831</v>
+        <v>89.72118910571756</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.730465146155419</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.1926162532675</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>20.97921935380498</v>
       </c>
       <c r="K18">
-        <v>52.58311820424372</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>42.60720559068866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>52.16699767442459</v>
+      </c>
+      <c r="M18">
+        <v>42.29533365273906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.12225172334718</v>
+        <v>21.02970405501861</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.44456904522947</v>
+        <v>18.15591835079972</v>
       </c>
       <c r="E19">
-        <v>38.53161741777414</v>
+        <v>38.0959481750205</v>
       </c>
       <c r="F19">
-        <v>90.00131539181552</v>
+        <v>88.95700990307816</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.735947016143461</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.06899751893857</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>20.85791557945579</v>
       </c>
       <c r="K19">
-        <v>52.2242825270785</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>42.32605982886749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>51.8153525711967</v>
+      </c>
+      <c r="M19">
+        <v>42.01933955415047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.70174509057599</v>
+        <v>21.6005966830567</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.19710831501505</v>
+        <v>18.88514647933294</v>
       </c>
       <c r="E20">
-        <v>39.75534935756616</v>
+        <v>39.28961549307839</v>
       </c>
       <c r="F20">
-        <v>93.65570490347625</v>
+        <v>92.49424378528666</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.71043097026145</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.63796365578331</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>21.41513237088492</v>
       </c>
       <c r="K20">
-        <v>53.87272870902837</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>43.61552830903068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>53.42812075798352</v>
+      </c>
+      <c r="M20">
+        <v>43.2831948817573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.92680313756692</v>
+        <v>23.75606655762025</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.52111837402909</v>
+        <v>22.02025047855635</v>
       </c>
       <c r="E21">
-        <v>44.95638876482572</v>
+        <v>44.2295382685792</v>
       </c>
       <c r="F21">
-        <v>109.6877687128636</v>
+        <v>107.6250199379444</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.597001995166684</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.02022848979976</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>23.68820221365585</v>
       </c>
       <c r="K21">
-        <v>60.64185891260057</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>48.84351420464564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>59.90323663488375</v>
+      </c>
+      <c r="M21">
+        <v>48.29775217388892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.92680313756692</v>
+        <v>23.75606655762025</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.52111837402909</v>
+        <v>22.02025047855635</v>
       </c>
       <c r="E22">
-        <v>44.95638876482572</v>
+        <v>44.2295382685792</v>
       </c>
       <c r="F22">
-        <v>109.6877687128636</v>
+        <v>107.6250199379444</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.597001995166684</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.02022848979976</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>23.68820221365585</v>
       </c>
       <c r="K22">
-        <v>60.64185891260057</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>48.84351420464564</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>59.90323663488375</v>
+      </c>
+      <c r="M22">
+        <v>48.29775217388892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.91124821095134</v>
+        <v>23.75606655762025</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>24.37213574251757</v>
+        <v>22.02025047855635</v>
       </c>
       <c r="E23">
-        <v>47.72828653655608</v>
+        <v>44.2295382685792</v>
       </c>
       <c r="F23">
-        <v>118.4538332321539</v>
+        <v>107.6250199379444</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.597001995166684</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.26379205727257</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>23.68820221365585</v>
       </c>
       <c r="K23">
-        <v>64.02002955552692</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>51.39869391043662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>59.90323663488375</v>
+      </c>
+      <c r="M23">
+        <v>48.29775217388892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.66939571720024</v>
+        <v>23.75606655762025</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.15416289133612</v>
+        <v>22.02025047855635</v>
       </c>
       <c r="E24">
-        <v>39.68600170756329</v>
+        <v>44.2295382685792</v>
       </c>
       <c r="F24">
-        <v>93.44726419845506</v>
+        <v>107.6250199379444</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.597001995166684</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.60579843177713</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>23.68820221365585</v>
       </c>
       <c r="K24">
-        <v>53.77976244938952</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>43.54295215054199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>59.90323663488375</v>
+      </c>
+      <c r="M24">
+        <v>48.29775217388892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.00325167023508</v>
+        <v>23.75606655762025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.93438638421691</v>
+        <v>22.02025047855635</v>
       </c>
       <c r="E25">
-        <v>34.31363947205421</v>
+        <v>44.2295382685792</v>
       </c>
       <c r="F25">
-        <v>77.8187960937414</v>
+        <v>107.6250199379444</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.597001995166684</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.0890308639478</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>23.68820221365585</v>
       </c>
       <c r="K25">
-        <v>46.43789398162218</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>37.76243601976238</v>
+        <v>59.90323663488375</v>
+      </c>
+      <c r="M25">
+        <v>48.29775217388892</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.03696271206394</v>
+        <v>19.93312624568267</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.71128489872936</v>
+        <v>4.441006478130151</v>
       </c>
       <c r="E2">
-        <v>30.41307629884813</v>
+        <v>29.62249465148378</v>
       </c>
       <c r="F2">
-        <v>67.52497157379254</v>
+        <v>45.74290342910039</v>
       </c>
       <c r="G2">
-        <v>1.883304920396399</v>
+        <v>1.971370489931237</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.22269301715189</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>41.18105028792086</v>
+        <v>13.90215214364316</v>
       </c>
       <c r="M2">
-        <v>33.58370328797564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.76866248415344</v>
+      </c>
+      <c r="O2">
+        <v>36.00699073315791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.72438179384858</v>
+        <v>18.72166399204137</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.42081738574157</v>
+        <v>4.242058480890964</v>
       </c>
       <c r="E3">
-        <v>28.04437904570784</v>
+        <v>27.84123808830264</v>
       </c>
       <c r="F3">
-        <v>61.42367312393336</v>
+        <v>42.3454939290389</v>
       </c>
       <c r="G3">
-        <v>1.923245468054582</v>
+        <v>1.988679190942251</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.0941510450229</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>37.84464131737278</v>
+        <v>12.92950592163444</v>
       </c>
       <c r="M3">
-        <v>30.90971757768401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.96943696530696</v>
+      </c>
+      <c r="O3">
+        <v>33.29258713475811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.89527601890032</v>
+        <v>17.95335364191193</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.63659397292921</v>
+        <v>4.12634222147988</v>
       </c>
       <c r="E4">
-        <v>26.57347993706549</v>
+        <v>26.71010728355102</v>
       </c>
       <c r="F4">
-        <v>57.76583072688489</v>
+        <v>40.3121465279893</v>
       </c>
       <c r="G4">
-        <v>1.946851580788397</v>
+        <v>1.99941302992412</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.3941874311756</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>35.76341772603296</v>
+        <v>12.30460248567436</v>
       </c>
       <c r="M4">
-        <v>29.23678408900695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.0963170509842</v>
+      </c>
+      <c r="O4">
+        <v>31.76120206746605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.55063088797791</v>
+        <v>17.63424171915127</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.31691738969233</v>
+        <v>4.080735733798611</v>
       </c>
       <c r="E5">
-        <v>25.96701004750192</v>
+        <v>26.23949741510677</v>
       </c>
       <c r="F5">
-        <v>56.28817646745136</v>
+        <v>39.48442794810408</v>
       </c>
       <c r="G5">
-        <v>1.956327123550957</v>
+        <v>2.003822567989635</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.1060485027199</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>34.90336623966848</v>
+        <v>12.04280191618122</v>
       </c>
       <c r="M5">
-        <v>28.54446545965491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>13.14896492095845</v>
+      </c>
+      <c r="O5">
+        <v>31.13312501070609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.49297055845243</v>
+        <v>17.5808953406789</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.26377853112715</v>
+        <v>4.073254509169543</v>
       </c>
       <c r="E6">
-        <v>25.86581056432486</v>
+        <v>26.16076405386374</v>
       </c>
       <c r="F6">
-        <v>56.04338433523846</v>
+        <v>39.34633509255527</v>
       </c>
       <c r="G6">
-        <v>1.957893888381611</v>
+        <v>2.004557140979263</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.05800271017947</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>34.75974487924441</v>
+        <v>11.99889355983156</v>
       </c>
       <c r="M6">
-        <v>28.42880056781421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>13.15776502749384</v>
+      </c>
+      <c r="O6">
+        <v>31.02843754470578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.89065652214769</v>
+        <v>17.9490741238213</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.63228547191452</v>
+        <v>4.125720969927902</v>
       </c>
       <c r="E7">
-        <v>26.56533269309791</v>
+        <v>26.70379985872085</v>
       </c>
       <c r="F7">
-        <v>57.74586003873675</v>
+        <v>40.30102724115185</v>
       </c>
       <c r="G7">
-        <v>1.946979858821167</v>
+        <v>1.999472344409742</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.39031442165773</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>35.75187126319562</v>
+        <v>12.30110091548999</v>
       </c>
       <c r="M7">
-        <v>29.22749319137742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.09702321376768</v>
+      </c>
+      <c r="O7">
+        <v>31.75275816937172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.58852681594595</v>
+        <v>19.52054755388533</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.26311860340747</v>
+        <v>4.371026406247168</v>
       </c>
       <c r="E8">
-        <v>29.59769433496332</v>
+        <v>29.01589816314986</v>
       </c>
       <c r="F8">
-        <v>65.3961310940294</v>
+        <v>44.58330809111285</v>
       </c>
       <c r="G8">
-        <v>1.897328298600315</v>
+        <v>1.977322087275942</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.83420425788399</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>40.03480688093379</v>
+        <v>13.57241323804921</v>
       </c>
       <c r="M8">
-        <v>32.66621883205828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.83716535853272</v>
+      </c>
+      <c r="O8">
+        <v>35.0808766837968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.80115300150707</v>
+        <v>22.53248257583305</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.68241875999421</v>
+        <v>5.089059529717423</v>
       </c>
       <c r="E9">
-        <v>35.6281502052707</v>
+        <v>33.2710254061404</v>
       </c>
       <c r="F9">
-        <v>81.81316755364145</v>
+        <v>52.77203220297226</v>
       </c>
       <c r="G9">
-        <v>1.786401338483042</v>
+        <v>1.934264200745253</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.69798396793371</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>48.44037184073372</v>
+        <v>15.8555285161791</v>
       </c>
       <c r="M9">
-        <v>39.35950917373201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>12.35420172413031</v>
+      </c>
+      <c r="O9">
+        <v>41.61531915706833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.28347234044496</v>
+        <v>24.74326663898215</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.80382948903058</v>
+        <v>5.714065127293642</v>
       </c>
       <c r="E10">
-        <v>40.76843819759257</v>
+        <v>36.2643756372664</v>
       </c>
       <c r="F10">
-        <v>96.94559877350635</v>
+        <v>58.60304137842831</v>
       </c>
       <c r="G10">
-        <v>1.677797733875059</v>
+        <v>1.902067069747253</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.10145098064221</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>55.40402702117737</v>
+        <v>17.4216412327333</v>
       </c>
       <c r="M10">
-        <v>44.82434393470177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.01217065350746</v>
+      </c>
+      <c r="O10">
+        <v>46.26369092118257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.59474195422306</v>
+        <v>25.71739071121289</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>21.75728446724239</v>
+        <v>5.999634908172741</v>
       </c>
       <c r="E11">
-        <v>43.82628329767073</v>
+        <v>37.6098135357739</v>
       </c>
       <c r="F11">
-        <v>106.3645420489882</v>
+        <v>61.24041557525236</v>
       </c>
       <c r="G11">
-        <v>1.606729938552971</v>
+        <v>1.887063156448144</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.50482483066613</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>59.38993814092335</v>
+        <v>18.11479566789679</v>
       </c>
       <c r="M11">
-        <v>47.90436980158076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>11.85831325706214</v>
+      </c>
+      <c r="O11">
+        <v>48.365741175803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.18305328783188</v>
+        <v>26.08224442781652</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>22.74799290679196</v>
+        <v>6.10836842330195</v>
       </c>
       <c r="E12">
-        <v>45.3360063893533</v>
+        <v>38.11842867500142</v>
       </c>
       <c r="F12">
-        <v>111.1008098998907</v>
+        <v>62.23978078903833</v>
       </c>
       <c r="G12">
-        <v>1.569898358198368</v>
+        <v>1.88130437316339</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24.18927237381268</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>61.29384477146195</v>
+        <v>18.37502890501329</v>
       </c>
       <c r="M12">
-        <v>49.35917122004052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11.80018318802564</v>
+      </c>
+      <c r="O12">
+        <v>49.16225175343721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.04845618910732</v>
+        <v>26.00383606051799</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22.51321529254523</v>
+        <v>6.084916478135124</v>
       </c>
       <c r="E13">
-        <v>44.98053631329516</v>
+        <v>38.00889999177121</v>
       </c>
       <c r="F13">
-        <v>109.9816320686719</v>
+        <v>62.02446703664105</v>
       </c>
       <c r="G13">
-        <v>1.578670760228142</v>
+        <v>1.882548543557828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>24.02863009121825</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>60.85007159283636</v>
+        <v>18.31907331871428</v>
       </c>
       <c r="M13">
-        <v>49.02116127723794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>11.81269889189139</v>
+      </c>
+      <c r="O13">
+        <v>48.99064258168357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.6401789229599</v>
+        <v>25.7474847062031</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>21.8307425842865</v>
+        <v>6.008565798005315</v>
       </c>
       <c r="E14">
-        <v>43.93911962854195</v>
+        <v>37.65166513160148</v>
       </c>
       <c r="F14">
-        <v>106.716870659244</v>
+        <v>61.32260189014035</v>
       </c>
       <c r="G14">
-        <v>1.604016117026142</v>
+        <v>1.886591095156088</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23.55617717553465</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>59.53389567974838</v>
+        <v>18.13624683194713</v>
       </c>
       <c r="M14">
-        <v>48.01477894841478</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>11.85352900242604</v>
+      </c>
+      <c r="O14">
+        <v>48.43124485758662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.40688446293118</v>
+        <v>25.58995533812273</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>21.45834930173288</v>
+        <v>5.961890379021846</v>
       </c>
       <c r="E15">
-        <v>43.3655606939946</v>
+        <v>37.43278573110725</v>
       </c>
       <c r="F15">
-        <v>104.9290837481765</v>
+        <v>60.89287118833603</v>
       </c>
       <c r="G15">
-        <v>1.617744224788161</v>
+        <v>1.889056352726767</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.29482022576524</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>58.79958068496342</v>
+        <v>18.02398512143329</v>
       </c>
       <c r="M15">
-        <v>47.45093504250035</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.87855180672292</v>
+      </c>
+      <c r="O15">
+        <v>48.08874329851104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.20429455511548</v>
+        <v>24.67901105636035</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.69439645687408</v>
+        <v>5.695460709817072</v>
       </c>
       <c r="E16">
-        <v>40.59370603492245</v>
+        <v>36.17623663746961</v>
       </c>
       <c r="F16">
-        <v>96.41582779016993</v>
+        <v>58.43060219429048</v>
       </c>
       <c r="G16">
-        <v>1.681712702261406</v>
+        <v>1.903038364975639</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.02060295405821</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>55.17197970386456</v>
+        <v>17.37599592416394</v>
       </c>
       <c r="M16">
-        <v>44.64379973200212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.02225123605798</v>
+      </c>
+      <c r="O16">
+        <v>46.12624879519947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.53029598439666</v>
+        <v>24.11241644970695</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.793580172273</v>
+        <v>5.53259847737291</v>
       </c>
       <c r="E17">
-        <v>39.14070896571631</v>
+        <v>35.40213536540271</v>
       </c>
       <c r="F17">
-        <v>92.05019351211014</v>
+        <v>56.91797653277271</v>
       </c>
       <c r="G17">
-        <v>1.713654097422589</v>
+        <v>1.911507981513016</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.34577286744757</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>53.22774371155555</v>
+        <v>16.9738724532992</v>
       </c>
       <c r="M17">
-        <v>43.12644565512036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.11077700950649</v>
+      </c>
+      <c r="O17">
+        <v>44.92057514049517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.15514421962007</v>
+        <v>23.78351702873466</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.31343827302785</v>
+        <v>5.439012189744371</v>
       </c>
       <c r="E18">
-        <v>38.35530913716065</v>
+        <v>34.95525402943813</v>
       </c>
       <c r="F18">
-        <v>89.72118910571756</v>
+        <v>56.04631717089686</v>
       </c>
       <c r="G18">
-        <v>1.730465146155419</v>
+        <v>1.91634771352768</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.97921935380498</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>52.16699767442459</v>
+        <v>16.74072959743006</v>
       </c>
       <c r="M18">
-        <v>42.29533365273906</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.16186653311851</v>
+      </c>
+      <c r="O18">
+        <v>44.22575621714607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.02970405501861</v>
+        <v>23.67162687479634</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>18.15591835079972</v>
+        <v>5.407329579299391</v>
       </c>
       <c r="E19">
-        <v>38.0959481750205</v>
+        <v>34.8036283021942</v>
       </c>
       <c r="F19">
-        <v>88.95700990307816</v>
+        <v>55.75083281381655</v>
       </c>
       <c r="G19">
-        <v>1.735947016143461</v>
+        <v>1.917981591307234</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.85791557945579</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>51.8153525711967</v>
+        <v>16.66145936256754</v>
       </c>
       <c r="M19">
-        <v>42.01933955415047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.17919713046416</v>
+      </c>
+      <c r="O19">
+        <v>43.99021028641472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.6005966830567</v>
+        <v>24.1730395351865</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.88514647933294</v>
+        <v>5.5499236872563</v>
       </c>
       <c r="E20">
-        <v>39.28961549307839</v>
+        <v>35.48470010793642</v>
       </c>
       <c r="F20">
-        <v>92.49424378528666</v>
+        <v>57.07914943697097</v>
       </c>
       <c r="G20">
-        <v>1.71043097026145</v>
+        <v>1.910609830447523</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.41513237088492</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>53.42812075798352</v>
+        <v>17.01686747088648</v>
       </c>
       <c r="M20">
-        <v>43.2831948817573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.10133624844982</v>
+      </c>
+      <c r="O20">
+        <v>45.04904579565323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.75606655762025</v>
+        <v>25.82288580793339</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>22.02025047855635</v>
+        <v>6.030971857396537</v>
       </c>
       <c r="E21">
-        <v>44.2295382685792</v>
+        <v>37.75660347980273</v>
       </c>
       <c r="F21">
-        <v>107.6250199379444</v>
+        <v>61.52871256073775</v>
       </c>
       <c r="G21">
-        <v>1.597001995166684</v>
+        <v>1.885406031709843</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>23.68820221365585</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>59.90323663488375</v>
+        <v>18.19000363217081</v>
       </c>
       <c r="M21">
-        <v>48.29775217388892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.8415337219531</v>
+      </c>
+      <c r="O21">
+        <v>48.59551811198934</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.75606655762025</v>
+        <v>26.87803376391119</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>22.02025047855635</v>
+        <v>6.349109701168401</v>
       </c>
       <c r="E22">
-        <v>44.2295382685792</v>
+        <v>39.237366959882</v>
       </c>
       <c r="F22">
-        <v>107.6250199379444</v>
+        <v>64.44248272897489</v>
       </c>
       <c r="G22">
-        <v>1.597001995166684</v>
+        <v>1.868467038816204</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.68820221365585</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>59.90323663488375</v>
+        <v>18.94395129240965</v>
       </c>
       <c r="M22">
-        <v>48.29775217388892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.67242714902009</v>
+      </c>
+      <c r="O22">
+        <v>50.91788971873856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.75606655762025</v>
+        <v>26.31678989623315</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>22.02025047855635</v>
+        <v>6.178803017601738</v>
       </c>
       <c r="E23">
-        <v>44.2295382685792</v>
+        <v>38.44681895894028</v>
       </c>
       <c r="F23">
-        <v>107.6250199379444</v>
+        <v>62.88566812364368</v>
       </c>
       <c r="G23">
-        <v>1.597001995166684</v>
+        <v>1.87756080555596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.68820221365585</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>59.90323663488375</v>
+        <v>18.54251404290147</v>
       </c>
       <c r="M23">
-        <v>48.29775217388892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.76266789143765</v>
+      </c>
+      <c r="O23">
+        <v>49.6770394806391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.75606655762025</v>
+        <v>24.14564170742903</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>22.02025047855635</v>
+        <v>5.542090848262307</v>
       </c>
       <c r="E24">
-        <v>44.2295382685792</v>
+        <v>35.44737842395434</v>
       </c>
       <c r="F24">
-        <v>107.6250199379444</v>
+        <v>57.00628969499139</v>
       </c>
       <c r="G24">
-        <v>1.597001995166684</v>
+        <v>1.91101597477779</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>23.68820221365585</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>59.90323663488375</v>
+        <v>16.9974355558296</v>
       </c>
       <c r="M24">
-        <v>48.29775217388892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.10560380119059</v>
+      </c>
+      <c r="O24">
+        <v>44.99096955186845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.75606655762025</v>
+        <v>21.68756224010657</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>22.02025047855635</v>
+        <v>4.857756973531196</v>
       </c>
       <c r="E25">
-        <v>44.2295382685792</v>
+        <v>32.14661566862504</v>
       </c>
       <c r="F25">
-        <v>107.6250199379444</v>
+        <v>50.59613929775426</v>
       </c>
       <c r="G25">
-        <v>1.597001995166684</v>
+        <v>1.945944546881199</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>23.68820221365585</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>59.90323663488375</v>
+        <v>15.25882430092958</v>
       </c>
       <c r="M25">
-        <v>48.29775217388892</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>12.48231764880348</v>
+      </c>
+      <c r="O25">
+        <v>39.88003108989523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.973936579530329</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>15.70147892709808</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>16.8914657067185</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>79.18329445036399</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.506330476203962</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.51723746316919</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>17.13588176064243</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>7.726105456002573</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>14.77592733642983</v>
+      </c>
+      <c r="E3">
+        <v>15.83773364141649</v>
+      </c>
+      <c r="F3">
+        <v>74.47837908689883</v>
+      </c>
+      <c r="G3">
+        <v>3.529805785378899</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>17.43545559361282</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>16.94880368210766</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>7.569968192699863</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>14.19414791763246</v>
+      </c>
+      <c r="E4">
+        <v>15.17352420103694</v>
+      </c>
+      <c r="F4">
+        <v>71.51645782996002</v>
+      </c>
+      <c r="G4">
+        <v>3.544608187503419</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>17.38881070702378</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>16.8348163882461</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>7.505429865113701</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>13.95385669039773</v>
+      </c>
+      <c r="E5">
+        <v>14.89868000058549</v>
+      </c>
+      <c r="F5">
+        <v>70.29197460439845</v>
+      </c>
+      <c r="G5">
+        <v>3.550743460503492</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>17.37072111759998</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>16.78863424108457</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>7.494660968687235</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>13.91376899661901</v>
+      </c>
+      <c r="E6">
+        <v>14.85279612538557</v>
+      </c>
+      <c r="F6">
+        <v>70.08762687775106</v>
+      </c>
+      <c r="G6">
+        <v>3.551768602166149</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>17.36777342702464</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>16.78098333545054</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>7.569101375573601</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>14.1909199868236</v>
+      </c>
+      <c r="E7">
+        <v>15.16983419960331</v>
+      </c>
+      <c r="F7">
+        <v>71.50001336761324</v>
+      </c>
+      <c r="G7">
+        <v>3.54469050522829</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>17.38856299824779</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>16.83419240957982</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>7.889357710724763</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>15.38523740816072</v>
+      </c>
+      <c r="E8">
+        <v>16.531783796978</v>
+      </c>
+      <c r="F8">
+        <v>77.57665559929748</v>
+      </c>
+      <c r="G8">
+        <v>3.514347576878945</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>17.48831115075836</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>17.07122325684947</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>8.48245444634245</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>17.61545575248089</v>
+      </c>
+      <c r="E9">
+        <v>19.31299120419661</v>
+      </c>
+      <c r="F9">
+        <v>88.88891582150619</v>
+      </c>
+      <c r="G9">
+        <v>3.457655171938651</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>17.71126666152004</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>17.54092831277462</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>8.892805469389883</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>19.18354377081927</v>
+      </c>
+      <c r="E10">
+        <v>21.27254021223276</v>
+      </c>
+      <c r="F10">
+        <v>96.82025173967121</v>
+      </c>
+      <c r="G10">
+        <v>3.417293879054482</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>17.89037526883937</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>17.88621396499388</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>9.073239364152251</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>19.882254131257</v>
+      </c>
+      <c r="E11">
+        <v>22.13417988788829</v>
+      </c>
+      <c r="F11">
+        <v>100.375551308333</v>
+      </c>
+      <c r="G11">
+        <v>3.399104769743772</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>17.97487022382017</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>18.04275315944065</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>9.140615808877813</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>20.14485752328794</v>
+      </c>
+      <c r="E12">
+        <v>22.45650474274569</v>
+      </c>
+      <c r="F12">
+        <v>101.7602969162273</v>
+      </c>
+      <c r="G12">
+        <v>3.392231354933776</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>18.00727319226982</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>18.10190618682361</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>9.126148118074395</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>20.08838689763395</v>
+      </c>
+      <c r="E13">
+        <v>22.38725686955723</v>
+      </c>
+      <c r="F13">
+        <v>101.462669791035</v>
+      </c>
+      <c r="G13">
+        <v>3.393711204724962</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>18.00027699228534</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>18.08917283935257</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>9.078801786399412</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>19.90389753590305</v>
+      </c>
+      <c r="E14">
+        <v>22.16077511795529</v>
+      </c>
+      <c r="F14">
+        <v>100.4897481760506</v>
+      </c>
+      <c r="G14">
+        <v>3.398539064538483</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>17.97752804593465</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>18.04762249193263</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>9.049675604494526</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>19.79063869454599</v>
+      </c>
+      <c r="E15">
+        <v>22.02154308477912</v>
+      </c>
+      <c r="F15">
+        <v>99.89202405618641</v>
+      </c>
+      <c r="G15">
+        <v>3.401497817248198</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>17.96364578513084</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>18.02215401479303</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>8.880883512103345</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>19.13759617107814</v>
+      </c>
+      <c r="E16">
+        <v>21.21565760162241</v>
+      </c>
+      <c r="F16">
+        <v>96.58808562967803</v>
+      </c>
+      <c r="G16">
+        <v>3.418485183737173</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>17.88491171931951</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>17.87596887941634</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>8.775697920554178</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>18.73329891393025</v>
+      </c>
+      <c r="E17">
+        <v>20.71386519476749</v>
+      </c>
+      <c r="F17">
+        <v>94.54463780054199</v>
+      </c>
+      <c r="G17">
+        <v>3.428943406072497</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>17.8373644973008</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>17.78611779882752</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>8.7146136873088</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>18.49937118066546</v>
+      </c>
+      <c r="E18">
+        <v>20.42242412896504</v>
+      </c>
+      <c r="F18">
+        <v>93.36179555458587</v>
+      </c>
+      <c r="G18">
+        <v>3.4349755215375</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>17.81030229407796</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>17.73439049486189</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>8.693832984641821</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>18.41992635411241</v>
+      </c>
+      <c r="E19">
+        <v>20.32325310440074</v>
+      </c>
+      <c r="F19">
+        <v>92.96000312887567</v>
+      </c>
+      <c r="G19">
+        <v>3.437021072763376</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>17.80118939117584</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>17.71686987832945</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>8.786955979029447</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>18.77647986625631</v>
+      </c>
+      <c r="E20">
+        <v>20.76757185299072</v>
+      </c>
+      <c r="F20">
+        <v>94.76293970079089</v>
+      </c>
+      <c r="G20">
+        <v>3.427828439454143</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>17.84239660774294</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>17.79568785271756</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>9.092734726993214</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>19.9581391310594</v>
+      </c>
+      <c r="E21">
+        <v>22.22740299724493</v>
+      </c>
+      <c r="F21">
+        <v>100.7758883412918</v>
+      </c>
+      <c r="G21">
+        <v>3.397120702454084</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>17.98419914949335</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>18.05983060728495</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>9.287021218569377</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>20.74910251413693</v>
+      </c>
+      <c r="E22">
+        <v>23.158587716328</v>
+      </c>
+      <c r="F22">
+        <v>104.7815679004802</v>
+      </c>
+      <c r="G22">
+        <v>3.377129621580425</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>18.0792320398723</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>18.23171317604654</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>9.183851410766971</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>20.31388974404372</v>
+      </c>
+      <c r="E23">
+        <v>22.6635753317221</v>
+      </c>
+      <c r="F23">
+        <v>102.6506937227307</v>
+      </c>
+      <c r="G23">
+        <v>3.387795830744311</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>18.02830472145931</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>18.1400605029821</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>8.781868111808439</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>18.75696241281058</v>
+      </c>
+      <c r="E24">
+        <v>20.74330029734474</v>
+      </c>
+      <c r="F24">
+        <v>94.66427048517238</v>
+      </c>
+      <c r="G24">
+        <v>3.428332454230927</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>17.84012073718835</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>17.79136144795658</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>8.326196084739884</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>17.02453591620949</v>
+      </c>
+      <c r="E25">
+        <v>18.56303358944546</v>
+      </c>
+      <c r="F25">
+        <v>85.89552464546693</v>
+      </c>
+      <c r="G25">
+        <v>3.472732019469903</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>17.64816122966613</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>17.41362653806358</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>16.34226719361665</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.167366867472786</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>17.55822845976652</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18.77745267876112</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>25.39641496532743</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.905058374619677</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.758365788085956</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.796530507099273</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.4877867472209</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,125 +463,1235 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.43245692425092</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>14.67720155351854</v>
+      </c>
+      <c r="Q2">
+        <v>13.8984420716838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>15.36815761339778</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.014308279596085</v>
+      </c>
+      <c r="E3">
+        <v>17.17950595344915</v>
+      </c>
+      <c r="F3">
+        <v>17.73512805570617</v>
+      </c>
+      <c r="G3">
+        <v>23.76757829199465</v>
+      </c>
+      <c r="H3">
+        <v>2.069282929225492</v>
+      </c>
+      <c r="I3">
+        <v>3.854568692937901</v>
+      </c>
+      <c r="J3">
+        <v>7.587879211127935</v>
+      </c>
+      <c r="K3">
+        <v>14.71385821771474</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>8.876530601828939</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>14.50092002035703</v>
+      </c>
+      <c r="Q3">
+        <v>13.25637067268409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>14.73303801527446</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2.916079207431223</v>
+      </c>
+      <c r="E4">
+        <v>16.94377966517989</v>
+      </c>
+      <c r="F4">
+        <v>17.07370734368722</v>
+      </c>
+      <c r="G4">
+        <v>22.7221946543327</v>
+      </c>
+      <c r="H4">
+        <v>2.173779112531242</v>
+      </c>
+      <c r="I4">
+        <v>3.916375278850713</v>
+      </c>
+      <c r="J4">
+        <v>7.46107084047851</v>
+      </c>
+      <c r="K4">
+        <v>14.85699726535618</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>8.517945971775132</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>14.39530848405878</v>
+      </c>
+      <c r="Q4">
+        <v>12.85416265579254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>14.4559119470315</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2.87547068169734</v>
+      </c>
+      <c r="E5">
+        <v>16.85265563971345</v>
+      </c>
+      <c r="F5">
+        <v>16.79635981107711</v>
+      </c>
+      <c r="G5">
+        <v>22.28013252841484</v>
+      </c>
+      <c r="H5">
+        <v>2.217551910984766</v>
+      </c>
+      <c r="I5">
+        <v>3.944805410306044</v>
+      </c>
+      <c r="J5">
+        <v>7.40882551045136</v>
+      </c>
+      <c r="K5">
+        <v>14.91614368925778</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>8.371372644454324</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>14.35667825077705</v>
+      </c>
+      <c r="Q5">
+        <v>12.68617101080216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>14.39821650733373</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2.869237183612694</v>
+      </c>
+      <c r="E6">
+        <v>16.84448789011996</v>
+      </c>
+      <c r="F6">
+        <v>16.74666307464432</v>
+      </c>
+      <c r="G6">
+        <v>22.20004696155739</v>
+      </c>
+      <c r="H6">
+        <v>2.225190768793476</v>
+      </c>
+      <c r="I6">
+        <v>3.952825642010784</v>
+      </c>
+      <c r="J6">
+        <v>7.398998070731078</v>
+      </c>
+      <c r="K6">
+        <v>14.92573156050771</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>8.351465305931264</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>14.35487333788014</v>
+      </c>
+      <c r="Q6">
+        <v>12.65533627577841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>14.69962460053941</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2.917075525019574</v>
+      </c>
+      <c r="E7">
+        <v>16.96168315808886</v>
+      </c>
+      <c r="F7">
+        <v>17.06103908561709</v>
+      </c>
+      <c r="G7">
+        <v>22.70025262958334</v>
+      </c>
+      <c r="H7">
+        <v>2.175199089149158</v>
+      </c>
+      <c r="I7">
+        <v>3.925345553329779</v>
+      </c>
+      <c r="J7">
+        <v>7.457181088267485</v>
+      </c>
+      <c r="K7">
+        <v>14.85710167932759</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>8.528514471182582</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>14.40733085710782</v>
+      </c>
+      <c r="Q7">
+        <v>12.84428031682942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>15.97765205810396</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3.11742293708495</v>
+      </c>
+      <c r="E8">
+        <v>17.45358402061</v>
+      </c>
+      <c r="F8">
+        <v>18.41167602474289</v>
+      </c>
+      <c r="G8">
+        <v>24.82483883500806</v>
+      </c>
+      <c r="H8">
+        <v>1.961929661539783</v>
+      </c>
+      <c r="I8">
+        <v>3.8017294653875</v>
+      </c>
+      <c r="J8">
+        <v>7.720298777800794</v>
+      </c>
+      <c r="K8">
+        <v>14.56462221071935</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>9.259790624246692</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>14.63277243659467</v>
+      </c>
+      <c r="Q8">
+        <v>13.6693605618681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>18.2349431652245</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3.47325536855895</v>
+      </c>
+      <c r="E9">
+        <v>18.357413511262</v>
+      </c>
+      <c r="F9">
+        <v>20.89391022733061</v>
+      </c>
+      <c r="G9">
+        <v>28.70318051997311</v>
+      </c>
+      <c r="H9">
+        <v>1.570941021552638</v>
+      </c>
+      <c r="I9">
+        <v>3.566946283167212</v>
+      </c>
+      <c r="J9">
+        <v>8.249315169707305</v>
+      </c>
+      <c r="K9">
+        <v>14.0252993324343</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.53504738827688</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>15.07158543539373</v>
+      </c>
+      <c r="Q9">
+        <v>15.22776282513622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>19.60969753601641</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3.724117203708723</v>
+      </c>
+      <c r="E10">
+        <v>19.17878980767381</v>
+      </c>
+      <c r="F10">
+        <v>22.53861058886464</v>
+      </c>
+      <c r="G10">
+        <v>31.26230649743846</v>
+      </c>
+      <c r="H10">
+        <v>1.807814153140705</v>
+      </c>
+      <c r="I10">
+        <v>3.417895255596103</v>
+      </c>
+      <c r="J10">
+        <v>8.616535748513162</v>
+      </c>
+      <c r="K10">
+        <v>13.65997840139841</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.26890453068361</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>15.46295594037695</v>
+      </c>
+      <c r="Q10">
+        <v>16.26832311503642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>19.40188349072286</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3.92644580385513</v>
+      </c>
+      <c r="E11">
+        <v>21.19976202217207</v>
+      </c>
+      <c r="F11">
+        <v>22.85045234237975</v>
+      </c>
+      <c r="G11">
+        <v>31.55382994598897</v>
+      </c>
+      <c r="H11">
+        <v>2.742634277249929</v>
+      </c>
+      <c r="I11">
+        <v>3.414056192830242</v>
+      </c>
+      <c r="J11">
+        <v>8.59382229548368</v>
+      </c>
+      <c r="K11">
+        <v>13.69113947656857</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.56606828099311</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>16.13764369388676</v>
+      </c>
+      <c r="Q11">
+        <v>16.30942196303434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>18.97349671137353</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4.0450363972326</v>
+      </c>
+      <c r="E12">
+        <v>22.91635066986839</v>
+      </c>
+      <c r="F12">
+        <v>22.75891212513297</v>
+      </c>
+      <c r="G12">
+        <v>31.29066174821256</v>
+      </c>
+      <c r="H12">
+        <v>4.054817739718461</v>
+      </c>
+      <c r="I12">
+        <v>3.422166444250738</v>
+      </c>
+      <c r="J12">
+        <v>8.497212004668311</v>
+      </c>
+      <c r="K12">
+        <v>13.91065433398387</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.815615687665359</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>16.63076411364524</v>
+      </c>
+      <c r="Q12">
+        <v>16.14050906333157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>18.30112916568723</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4.111279914758104</v>
+      </c>
+      <c r="E13">
+        <v>24.51000860967735</v>
+      </c>
+      <c r="F13">
+        <v>22.3193462482893</v>
+      </c>
+      <c r="G13">
+        <v>30.55007108452015</v>
+      </c>
+      <c r="H13">
+        <v>5.465097098887779</v>
+      </c>
+      <c r="I13">
+        <v>3.453841632705402</v>
+      </c>
+      <c r="J13">
+        <v>8.329771544695387</v>
+      </c>
+      <c r="K13">
+        <v>14.26951366493315</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8.980785360652209</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>17.03046257379634</v>
+      </c>
+      <c r="Q13">
+        <v>15.76734285661401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>17.70299104201288</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.135166764365029</v>
+      </c>
+      <c r="E14">
+        <v>25.59682004995331</v>
+      </c>
+      <c r="F14">
+        <v>21.84480935340388</v>
+      </c>
+      <c r="G14">
+        <v>29.79961316938036</v>
+      </c>
+      <c r="H14">
+        <v>6.489537794055797</v>
+      </c>
+      <c r="I14">
+        <v>3.489014705841835</v>
+      </c>
+      <c r="J14">
+        <v>8.177976506215741</v>
+      </c>
+      <c r="K14">
+        <v>14.59202497978405</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>8.356775288537721</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>17.27439373393419</v>
+      </c>
+      <c r="Q14">
+        <v>15.3956589696087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>17.4942043737979</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>4.130299612180163</v>
+      </c>
+      <c r="E15">
+        <v>25.82564932882608</v>
+      </c>
+      <c r="F15">
+        <v>21.64986390395864</v>
+      </c>
+      <c r="G15">
+        <v>29.50627432509131</v>
+      </c>
+      <c r="H15">
+        <v>6.726309708507398</v>
+      </c>
+      <c r="I15">
+        <v>3.507134425468973</v>
+      </c>
+      <c r="J15">
+        <v>8.125005540781851</v>
+      </c>
+      <c r="K15">
+        <v>14.68926670124315</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>8.186741857952294</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>17.31644968101683</v>
+      </c>
+      <c r="Q15">
+        <v>15.26248858877663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>16.99841225452791</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>4.019080028340903</v>
+      </c>
+      <c r="E16">
+        <v>25.22239355843822</v>
+      </c>
+      <c r="F16">
+        <v>20.93354991653962</v>
+      </c>
+      <c r="G16">
+        <v>28.51722018816119</v>
+      </c>
+      <c r="H16">
+        <v>6.512678785921591</v>
+      </c>
+      <c r="I16">
+        <v>3.570958753869558</v>
+      </c>
+      <c r="J16">
+        <v>7.9906010309563</v>
+      </c>
+      <c r="K16">
+        <v>14.73960458570907</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7.995947374033488</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>17.07170922744814</v>
+      </c>
+      <c r="Q16">
+        <v>14.86703459800224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>16.94461037728638</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3.918731727316098</v>
+      </c>
+      <c r="E17">
+        <v>24.14301627394478</v>
+      </c>
+      <c r="F17">
+        <v>20.69385291047092</v>
+      </c>
+      <c r="G17">
+        <v>28.16842032554367</v>
+      </c>
+      <c r="H17">
+        <v>5.770692159086454</v>
+      </c>
+      <c r="I17">
+        <v>3.60182986079178</v>
+      </c>
+      <c r="J17">
+        <v>7.971169221951256</v>
+      </c>
+      <c r="K17">
+        <v>14.60614153391102</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>8.192353007874788</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>16.75152314835723</v>
+      </c>
+      <c r="Q17">
+        <v>14.76197399378124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>17.29221476624198</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3.816630791596436</v>
+      </c>
+      <c r="E18">
+        <v>22.57300880098789</v>
+      </c>
+      <c r="F18">
+        <v>20.78186694182331</v>
+      </c>
+      <c r="G18">
+        <v>28.35498406134266</v>
+      </c>
+      <c r="H18">
+        <v>4.50967305977286</v>
+      </c>
+      <c r="I18">
+        <v>3.596320669398836</v>
+      </c>
+      <c r="J18">
+        <v>8.048977324924095</v>
+      </c>
+      <c r="K18">
+        <v>14.3359312962571</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>8.755717371462318</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>16.32754633160775</v>
+      </c>
+      <c r="Q18">
+        <v>14.90088089980414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>17.88416752212644</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3.724808437808676</v>
+      </c>
+      <c r="E19">
+        <v>20.90871483376548</v>
+      </c>
+      <c r="F19">
+        <v>21.10829064797725</v>
+      </c>
+      <c r="G19">
+        <v>28.93005581206368</v>
+      </c>
+      <c r="H19">
+        <v>3.00689739240532</v>
+      </c>
+      <c r="I19">
+        <v>3.575633366462771</v>
+      </c>
+      <c r="J19">
+        <v>8.190603731860401</v>
+      </c>
+      <c r="K19">
+        <v>14.07067341965239</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9.600625107708993</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>15.89541732838361</v>
+      </c>
+      <c r="Q19">
+        <v>15.20790887941287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>19.18391965625267</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3.664317056355931</v>
+      </c>
+      <c r="E20">
+        <v>19.03130003850512</v>
+      </c>
+      <c r="F20">
+        <v>22.09060305192085</v>
+      </c>
+      <c r="G20">
+        <v>30.56480488319379</v>
+      </c>
+      <c r="H20">
+        <v>1.737448211649671</v>
+      </c>
+      <c r="I20">
+        <v>3.48367096975247</v>
+      </c>
+      <c r="J20">
+        <v>8.510522015889061</v>
+      </c>
+      <c r="K20">
+        <v>13.75952656500122</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.1060343945546</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>15.40249156809701</v>
+      </c>
+      <c r="Q20">
+        <v>15.9774175211177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>20.33804504891167</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3.832266442987019</v>
+      </c>
+      <c r="E21">
+        <v>19.38437796133361</v>
+      </c>
+      <c r="F21">
+        <v>23.47395784313651</v>
+      </c>
+      <c r="G21">
+        <v>32.60637108577362</v>
+      </c>
+      <c r="H21">
+        <v>1.942255562497716</v>
+      </c>
+      <c r="I21">
+        <v>3.358665776825432</v>
+      </c>
+      <c r="J21">
+        <v>8.827110096744072</v>
+      </c>
+      <c r="K21">
+        <v>13.47049609938618</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11.82353869015492</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>15.61621489332455</v>
+      </c>
+      <c r="Q21">
+        <v>16.8363816725141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>21.04012327386294</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3.941858961155133</v>
+      </c>
+      <c r="E22">
+        <v>19.67364340156382</v>
+      </c>
+      <c r="F22">
+        <v>24.36893950756565</v>
+      </c>
+      <c r="G22">
+        <v>33.86002607683492</v>
+      </c>
+      <c r="H22">
+        <v>2.069617572252632</v>
+      </c>
+      <c r="I22">
+        <v>3.271109870363759</v>
+      </c>
+      <c r="J22">
+        <v>9.025797675174035</v>
+      </c>
+      <c r="K22">
+        <v>13.28832636499604</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.20196009606792</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>15.767250256643</v>
+      </c>
+      <c r="Q22">
+        <v>17.45037555747602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>20.69421179820287</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3.882296019896793</v>
+      </c>
+      <c r="E23">
+        <v>19.49790117509201</v>
+      </c>
+      <c r="F23">
+        <v>23.90178849827296</v>
+      </c>
+      <c r="G23">
+        <v>33.20813912172852</v>
+      </c>
+      <c r="H23">
+        <v>2.002513333813498</v>
+      </c>
+      <c r="I23">
+        <v>3.307080218755778</v>
+      </c>
+      <c r="J23">
+        <v>8.922931802519239</v>
+      </c>
+      <c r="K23">
+        <v>13.38323144854096</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>11.99055220120216</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>15.67122531894596</v>
+      </c>
+      <c r="Q23">
+        <v>17.11020879967894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>19.27778634372283</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3.650687392835176</v>
+      </c>
+      <c r="E24">
+        <v>18.85860104127192</v>
+      </c>
+      <c r="F24">
+        <v>22.12523938753488</v>
+      </c>
+      <c r="G24">
+        <v>30.62842835635355</v>
+      </c>
+      <c r="H24">
+        <v>1.741984124184579</v>
+      </c>
+      <c r="I24">
+        <v>3.464436370381295</v>
+      </c>
+      <c r="J24">
+        <v>8.527408296847684</v>
+      </c>
+      <c r="K24">
+        <v>13.75349323947755</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.17444268203876</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>15.33403614689392</v>
+      </c>
+      <c r="Q24">
+        <v>16.01269634338309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>17.61117621346843</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3.383241825686969</v>
+      </c>
+      <c r="E25">
+        <v>18.1501753265421</v>
+      </c>
+      <c r="F25">
+        <v>20.22944088381913</v>
+      </c>
+      <c r="G25">
+        <v>27.65146591493476</v>
+      </c>
+      <c r="H25">
+        <v>1.674929919653278</v>
+      </c>
+      <c r="I25">
+        <v>3.643258881669906</v>
+      </c>
+      <c r="J25">
+        <v>8.10051040363456</v>
+      </c>
+      <c r="K25">
+        <v>14.16869155239804</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.2242187589993</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>14.97432644974322</v>
+      </c>
+      <c r="Q25">
+        <v>14.80311105746713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.34226719361665</v>
+        <v>16.39364374027497</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.167366867472786</v>
+        <v>3.197192450882735</v>
       </c>
       <c r="E2">
-        <v>17.55822845976652</v>
+        <v>16.78625931973114</v>
       </c>
       <c r="F2">
-        <v>18.77745267876112</v>
+        <v>18.88149750699024</v>
       </c>
       <c r="G2">
-        <v>25.39641496532743</v>
+        <v>25.51428150112787</v>
       </c>
       <c r="H2">
-        <v>1.905058374619677</v>
+        <v>1.755015649064844</v>
       </c>
       <c r="I2">
-        <v>3.758365788085956</v>
+        <v>3.506227696026432</v>
       </c>
       <c r="J2">
-        <v>7.796530507099273</v>
+        <v>8.661748215887775</v>
       </c>
       <c r="K2">
-        <v>14.4877867472209</v>
+        <v>13.92945006140748</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.91573262504845</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.595446790891476</v>
       </c>
       <c r="N2">
-        <v>9.43245692425092</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>14.67720155351854</v>
+        <v>9.344518276168415</v>
       </c>
       <c r="Q2">
-        <v>13.8984420716838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>14.4503545576359</v>
+      </c>
+      <c r="S2">
+        <v>14.02366482294108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.36815761339778</v>
+        <v>15.43031638980318</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.014308279596085</v>
+        <v>3.041328572824868</v>
       </c>
       <c r="E3">
-        <v>17.17950595344915</v>
+        <v>16.38519877850775</v>
       </c>
       <c r="F3">
-        <v>17.73512805570617</v>
+        <v>17.85665852560298</v>
       </c>
       <c r="G3">
-        <v>23.76757829199465</v>
+        <v>23.77543136162091</v>
       </c>
       <c r="H3">
-        <v>2.069282929225492</v>
+        <v>1.909557732900749</v>
       </c>
       <c r="I3">
-        <v>3.854568692937901</v>
+        <v>3.58935654059426</v>
       </c>
       <c r="J3">
-        <v>7.587879211127935</v>
+        <v>8.463548814942417</v>
       </c>
       <c r="K3">
-        <v>14.71385821771474</v>
+        <v>14.13361147605715</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.04513612206271</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.827194825410691</v>
       </c>
       <c r="N3">
-        <v>8.876530601828939</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>14.50092002035703</v>
+        <v>8.804910809134267</v>
       </c>
       <c r="Q3">
-        <v>13.25637067268409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>14.25538086349238</v>
+      </c>
+      <c r="S3">
+        <v>13.39455533966524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.73303801527446</v>
+        <v>14.8008483202399</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.916079207431223</v>
+        <v>2.941325548608609</v>
       </c>
       <c r="E4">
-        <v>16.94377966517989</v>
+        <v>16.13651821561886</v>
       </c>
       <c r="F4">
-        <v>17.07370734368722</v>
+        <v>17.20605165248916</v>
       </c>
       <c r="G4">
-        <v>22.7221946543327</v>
+        <v>22.68101423465622</v>
       </c>
       <c r="H4">
-        <v>2.173779112531242</v>
+        <v>2.007913646941765</v>
       </c>
       <c r="I4">
-        <v>3.916375278850713</v>
+        <v>3.643058894566579</v>
       </c>
       <c r="J4">
-        <v>7.46107084047851</v>
+        <v>8.341331625899601</v>
       </c>
       <c r="K4">
-        <v>14.85699726535618</v>
+        <v>14.26333597627008</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.13744795635734</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.977176872776296</v>
       </c>
       <c r="N4">
-        <v>8.517945971775132</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>14.39530848405878</v>
+        <v>8.458186468465724</v>
       </c>
       <c r="Q4">
-        <v>12.85416265579254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>14.13879508133741</v>
+      </c>
+      <c r="S4">
+        <v>13.00005681625183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.4559119470315</v>
+        <v>14.52626672091179</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.87547068169734</v>
+        <v>2.899940306020598</v>
       </c>
       <c r="E5">
-        <v>16.85265563971345</v>
+        <v>16.03984629297832</v>
       </c>
       <c r="F5">
-        <v>16.79635981107711</v>
+        <v>16.93331809497144</v>
       </c>
       <c r="G5">
-        <v>22.28013252841484</v>
+        <v>22.22631908140304</v>
       </c>
       <c r="H5">
-        <v>2.217551910984766</v>
+        <v>2.049129176081685</v>
       </c>
       <c r="I5">
-        <v>3.944805410306044</v>
+        <v>3.668617002780692</v>
       </c>
       <c r="J5">
-        <v>7.40882551045136</v>
+        <v>8.290616106601709</v>
       </c>
       <c r="K5">
-        <v>14.91614368925778</v>
+        <v>14.31658999570328</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.17558937876123</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.04181601678439</v>
       </c>
       <c r="N5">
-        <v>8.371372644454324</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>14.35667825077705</v>
+        <v>8.316739007251686</v>
       </c>
       <c r="Q5">
-        <v>12.68617101080216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>14.09552162694936</v>
+      </c>
+      <c r="S5">
+        <v>12.83530399266721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.39821650733373</v>
+        <v>14.46962382660647</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.869237183612694</v>
+        <v>2.893525568741383</v>
       </c>
       <c r="E6">
-        <v>16.84448789011996</v>
+        <v>16.03017309134884</v>
       </c>
       <c r="F6">
-        <v>16.74666307464432</v>
+        <v>16.88463146096008</v>
       </c>
       <c r="G6">
-        <v>22.20004696155739</v>
+        <v>22.14450704178312</v>
       </c>
       <c r="H6">
-        <v>2.225190768793476</v>
+        <v>2.056334265025952</v>
       </c>
       <c r="I6">
-        <v>3.952825642010784</v>
+        <v>3.676752954998612</v>
       </c>
       <c r="J6">
-        <v>7.398998070731078</v>
+        <v>8.281171556014334</v>
       </c>
       <c r="K6">
-        <v>14.92573156050771</v>
+        <v>14.32467501384659</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.17892431930138</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.0546054702663</v>
       </c>
       <c r="N6">
-        <v>8.351465305931264</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>14.35487333788014</v>
+        <v>8.297454555146466</v>
       </c>
       <c r="Q6">
-        <v>12.65533627577841</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>14.09257208500144</v>
+      </c>
+      <c r="S6">
+        <v>12.80521485251085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.69962460053941</v>
+        <v>14.76730697932352</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.917075525019574</v>
+        <v>2.945811424022088</v>
       </c>
       <c r="E7">
-        <v>16.96168315808886</v>
+        <v>16.14619619217167</v>
       </c>
       <c r="F7">
-        <v>17.06103908561709</v>
+        <v>17.17446637209311</v>
       </c>
       <c r="G7">
-        <v>22.70025262958334</v>
+        <v>22.76812398178746</v>
       </c>
       <c r="H7">
-        <v>2.175199089149158</v>
+        <v>2.00963798418474</v>
       </c>
       <c r="I7">
-        <v>3.925345553329779</v>
+        <v>3.653688559863112</v>
       </c>
       <c r="J7">
-        <v>7.457181088267485</v>
+        <v>8.279284849005451</v>
       </c>
       <c r="K7">
-        <v>14.85710167932759</v>
+        <v>14.26201576954572</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.12957423411368</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.983344255566372</v>
       </c>
       <c r="N7">
-        <v>8.528514471182582</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>14.40733085710782</v>
+        <v>8.46476703284918</v>
       </c>
       <c r="Q7">
-        <v>12.84428031682942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>14.15057045719949</v>
+      </c>
+      <c r="S7">
+        <v>12.97432561450778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.97765205810396</v>
+        <v>16.02926530147869</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.11742293708495</v>
+        <v>3.157590724768255</v>
       </c>
       <c r="E8">
-        <v>17.45358402061</v>
+        <v>16.65042784242062</v>
       </c>
       <c r="F8">
-        <v>18.41167602474289</v>
+        <v>18.46146297010459</v>
       </c>
       <c r="G8">
-        <v>24.82483883500806</v>
+        <v>25.23637287422765</v>
       </c>
       <c r="H8">
-        <v>1.961929661539783</v>
+        <v>1.809682804306358</v>
       </c>
       <c r="I8">
-        <v>3.8017294653875</v>
+        <v>3.547522477438573</v>
       </c>
       <c r="J8">
-        <v>7.720298777800794</v>
+        <v>8.400988904082423</v>
       </c>
       <c r="K8">
-        <v>14.56462221071935</v>
+        <v>13.99754877660867</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.94979362725677</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.679602485633257</v>
       </c>
       <c r="N8">
-        <v>9.259790624246692</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>14.63277243659467</v>
+        <v>9.165864704339951</v>
       </c>
       <c r="Q8">
-        <v>13.6693605618681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>14.4009748669874</v>
+      </c>
+      <c r="S8">
+        <v>13.74792559278136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.2349431652245</v>
+        <v>18.25296436169118</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.47325536855895</v>
+        <v>3.522162036126676</v>
       </c>
       <c r="E9">
-        <v>18.357413511262</v>
+        <v>17.60969919898956</v>
       </c>
       <c r="F9">
-        <v>20.89391022733061</v>
+        <v>20.8913957895872</v>
       </c>
       <c r="G9">
-        <v>28.70318051997311</v>
+        <v>29.32854167912905</v>
       </c>
       <c r="H9">
-        <v>1.570941021552638</v>
+        <v>1.676219959314227</v>
       </c>
       <c r="I9">
-        <v>3.566946283167212</v>
+        <v>3.343377710612521</v>
       </c>
       <c r="J9">
-        <v>8.249315169707305</v>
+        <v>8.852460354861991</v>
       </c>
       <c r="K9">
-        <v>14.0252993324343</v>
+        <v>13.51548181781157</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.71157490704832</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.137358495949258</v>
       </c>
       <c r="N9">
-        <v>10.53504738827688</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>15.07158543539373</v>
+        <v>10.40843245841245</v>
       </c>
       <c r="Q9">
-        <v>15.22776282513622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>14.89062732223119</v>
+      </c>
+      <c r="S9">
+        <v>15.26400697898437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.60969753601641</v>
+        <v>19.60657052839742</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.724117203708723</v>
+        <v>3.79559551944133</v>
       </c>
       <c r="E10">
-        <v>19.17878980767381</v>
+        <v>18.42757785357117</v>
       </c>
       <c r="F10">
-        <v>22.53861058886464</v>
+        <v>22.41337562914923</v>
       </c>
       <c r="G10">
-        <v>31.26230649743846</v>
+        <v>32.44494202221278</v>
       </c>
       <c r="H10">
-        <v>1.807814153140705</v>
+        <v>1.915687119916456</v>
       </c>
       <c r="I10">
-        <v>3.417895255596103</v>
+        <v>3.217540361111153</v>
       </c>
       <c r="J10">
-        <v>8.616535748513162</v>
+        <v>8.854821792327208</v>
       </c>
       <c r="K10">
-        <v>13.65997840139841</v>
+        <v>13.19251179237009</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.61148205609561</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.782269422993947</v>
       </c>
       <c r="N10">
-        <v>11.26890453068361</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>15.46295594037695</v>
+        <v>11.12312589905432</v>
       </c>
       <c r="Q10">
-        <v>16.26832311503642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>15.31747124947773</v>
+      </c>
+      <c r="S10">
+        <v>16.19905055899421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.40188349072286</v>
+        <v>19.49222386103978</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.92644580385513</v>
+        <v>4.030708096253584</v>
       </c>
       <c r="E11">
-        <v>21.19976202217207</v>
+        <v>20.26952106703589</v>
       </c>
       <c r="F11">
-        <v>22.85045234237975</v>
+        <v>22.4867070332741</v>
       </c>
       <c r="G11">
-        <v>31.55382994598897</v>
+        <v>33.83146978826486</v>
       </c>
       <c r="H11">
-        <v>2.742634277249929</v>
+        <v>2.808832976127706</v>
       </c>
       <c r="I11">
-        <v>3.414056192830242</v>
+        <v>3.222478459075521</v>
       </c>
       <c r="J11">
-        <v>8.59382229548368</v>
+        <v>8.18253652719619</v>
       </c>
       <c r="K11">
-        <v>13.69113947656857</v>
+        <v>13.2115491813363</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.72851989514027</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.724748621550614</v>
       </c>
       <c r="N11">
-        <v>10.56606828099311</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>16.13764369388676</v>
+        <v>10.33602433398942</v>
       </c>
       <c r="Q11">
-        <v>16.30942196303434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>15.94448120918455</v>
+      </c>
+      <c r="S11">
+        <v>16.0917737347867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.97349671137353</v>
+        <v>19.15178205617672</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.0450363972326</v>
+        <v>4.162198640501883</v>
       </c>
       <c r="E12">
-        <v>22.91635066986839</v>
+        <v>21.82907026911035</v>
       </c>
       <c r="F12">
-        <v>22.75891212513297</v>
+        <v>22.32458934824633</v>
       </c>
       <c r="G12">
-        <v>31.29066174821256</v>
+        <v>34.09895679215376</v>
       </c>
       <c r="H12">
-        <v>4.054817739718461</v>
+        <v>4.097869067694187</v>
       </c>
       <c r="I12">
-        <v>3.422166444250738</v>
+        <v>3.230504752136082</v>
       </c>
       <c r="J12">
-        <v>8.497212004668311</v>
+        <v>7.803145530137311</v>
       </c>
       <c r="K12">
-        <v>13.91065433398387</v>
+        <v>13.38370613561776</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.9196217093574</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.809779377190811</v>
       </c>
       <c r="N12">
-        <v>9.815615687665359</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>16.63076411364524</v>
+        <v>9.523647250443885</v>
       </c>
       <c r="Q12">
-        <v>16.14050906333157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>16.38189672531642</v>
+      </c>
+      <c r="S12">
+        <v>15.85727975916684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.30112916568723</v>
+        <v>18.57717283106472</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.111279914758104</v>
+        <v>4.218255595765579</v>
       </c>
       <c r="E13">
-        <v>24.51000860967735</v>
+        <v>23.30472177180628</v>
       </c>
       <c r="F13">
-        <v>22.3193462482893</v>
+        <v>21.93347803513662</v>
       </c>
       <c r="G13">
-        <v>30.55007108452015</v>
+        <v>33.30664786321022</v>
       </c>
       <c r="H13">
-        <v>5.465097098887779</v>
+        <v>5.444859885353084</v>
       </c>
       <c r="I13">
-        <v>3.453841632705402</v>
+        <v>3.257578711095684</v>
       </c>
       <c r="J13">
-        <v>8.329771544695387</v>
+        <v>7.735627046144129</v>
       </c>
       <c r="K13">
-        <v>14.26951366493315</v>
+        <v>13.65994334094366</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.13562217973316</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.014421245629253</v>
       </c>
       <c r="N13">
-        <v>8.980785360652209</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>17.03046257379634</v>
+        <v>8.643381945919746</v>
       </c>
       <c r="Q13">
-        <v>15.76734285661401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>16.71221460982087</v>
+      </c>
+      <c r="S13">
+        <v>15.52684155883733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.70299104201288</v>
+        <v>18.05348106732716</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.135166764365029</v>
+        <v>4.224423352925526</v>
       </c>
       <c r="E14">
-        <v>25.59682004995331</v>
+        <v>24.3276532003333</v>
       </c>
       <c r="F14">
-        <v>21.84480935340388</v>
+        <v>21.54451001524723</v>
       </c>
       <c r="G14">
-        <v>29.79961316938036</v>
+        <v>32.26427958546071</v>
       </c>
       <c r="H14">
-        <v>6.489537794055797</v>
+        <v>6.466108647994888</v>
       </c>
       <c r="I14">
-        <v>3.489014705841835</v>
+        <v>3.288109824805078</v>
       </c>
       <c r="J14">
-        <v>8.177976506215741</v>
+        <v>7.820542251049971</v>
       </c>
       <c r="K14">
-        <v>14.59202497978405</v>
+        <v>13.9040200805475</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.29384554645165</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.222799979467966</v>
       </c>
       <c r="N14">
-        <v>8.356775288537721</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>17.27439373393419</v>
+        <v>7.993820718295678</v>
       </c>
       <c r="Q14">
-        <v>15.3956589696087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>16.90025579304396</v>
+      </c>
+      <c r="S14">
+        <v>15.24432749221446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.4942043737979</v>
+        <v>17.86531836475489</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.130299612180163</v>
+        <v>4.210676581695353</v>
       </c>
       <c r="E15">
-        <v>25.82564932882608</v>
+        <v>24.55093002099692</v>
       </c>
       <c r="F15">
-        <v>21.64986390395864</v>
+        <v>21.39285381555364</v>
       </c>
       <c r="G15">
-        <v>29.50627432509131</v>
+        <v>31.78930919196637</v>
       </c>
       <c r="H15">
-        <v>6.726309708507398</v>
+        <v>6.703000217924981</v>
       </c>
       <c r="I15">
-        <v>3.507134425468973</v>
+        <v>3.304833767780717</v>
       </c>
       <c r="J15">
-        <v>8.125005540781851</v>
+        <v>7.897163411573911</v>
       </c>
       <c r="K15">
-        <v>14.68926670124315</v>
+        <v>13.9768432175968</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.32792361330427</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.295871835698746</v>
       </c>
       <c r="N15">
-        <v>8.186741857952294</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>17.31644968101683</v>
+        <v>7.819979872292716</v>
       </c>
       <c r="Q15">
-        <v>15.26248858877663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>16.92611411051768</v>
+      </c>
+      <c r="S15">
+        <v>15.14974066385159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.99841225452791</v>
+        <v>17.38037840704517</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.019080028340903</v>
+        <v>4.062447087908978</v>
       </c>
       <c r="E16">
-        <v>25.22239355843822</v>
+        <v>24.04592478683397</v>
       </c>
       <c r="F16">
-        <v>20.93354991653962</v>
+        <v>20.93805446832111</v>
       </c>
       <c r="G16">
-        <v>28.51722018816119</v>
+        <v>29.87060999051093</v>
       </c>
       <c r="H16">
-        <v>6.512678785921591</v>
+        <v>6.484526020676699</v>
       </c>
       <c r="I16">
-        <v>3.570958753869558</v>
+        <v>3.359528631818141</v>
       </c>
       <c r="J16">
-        <v>7.9906010309563</v>
+        <v>8.361283496268797</v>
       </c>
       <c r="K16">
-        <v>14.73960458570907</v>
+        <v>14.00892579739334</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.22188261391563</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.426302671594636</v>
       </c>
       <c r="N16">
-        <v>7.995947374033488</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>17.07170922744814</v>
+        <v>7.651350258171796</v>
       </c>
       <c r="Q16">
-        <v>14.86703459800224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>16.66881603092242</v>
+      </c>
+      <c r="S16">
+        <v>14.91550106368502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.94461037728638</v>
+        <v>17.29097789385455</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.918731727316098</v>
+        <v>3.948582232979267</v>
       </c>
       <c r="E17">
-        <v>24.14301627394478</v>
+        <v>23.06189433747389</v>
       </c>
       <c r="F17">
-        <v>20.69385291047092</v>
+        <v>20.76896593267267</v>
       </c>
       <c r="G17">
-        <v>28.16842032554367</v>
+        <v>29.08246815635523</v>
       </c>
       <c r="H17">
-        <v>5.770692159086454</v>
+        <v>5.736246216042336</v>
       </c>
       <c r="I17">
-        <v>3.60182986079178</v>
+        <v>3.386114045362878</v>
       </c>
       <c r="J17">
-        <v>7.971169221951256</v>
+        <v>8.596520545381505</v>
       </c>
       <c r="K17">
-        <v>14.60614153391102</v>
+        <v>13.90987463994456</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.07377734032526</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.40860809231201</v>
       </c>
       <c r="N17">
-        <v>8.192353007874788</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>16.75152314835723</v>
+        <v>7.876479959180045</v>
       </c>
       <c r="Q17">
-        <v>14.76197399378124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>16.37173183227641</v>
+      </c>
+      <c r="S17">
+        <v>14.87075853283461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.29221476624198</v>
+        <v>17.56133356970496</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.816630791596436</v>
+        <v>3.845047876722246</v>
       </c>
       <c r="E18">
-        <v>22.57300880098789</v>
+        <v>21.60903442402442</v>
       </c>
       <c r="F18">
-        <v>20.78186694182331</v>
+        <v>20.86878638770366</v>
       </c>
       <c r="G18">
-        <v>28.35498406134266</v>
+        <v>29.0400214104796</v>
       </c>
       <c r="H18">
-        <v>4.50967305977286</v>
+        <v>4.464555987966143</v>
       </c>
       <c r="I18">
-        <v>3.596320669398836</v>
+        <v>3.378344625185144</v>
       </c>
       <c r="J18">
-        <v>8.048977324924095</v>
+        <v>8.770051116460149</v>
       </c>
       <c r="K18">
-        <v>14.3359312962571</v>
+        <v>13.71183608971926</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.89448736100598</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.27545209255214</v>
       </c>
       <c r="N18">
-        <v>8.755717371462318</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>16.32754633160775</v>
+        <v>8.48438222990627</v>
       </c>
       <c r="Q18">
-        <v>14.90088089980414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>16.00057435285403</v>
+      </c>
+      <c r="S18">
+        <v>15.01852506951103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.88416752212644</v>
+        <v>18.05413706385258</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.724808437808676</v>
+        <v>3.758301094211532</v>
       </c>
       <c r="E19">
-        <v>20.90871483376548</v>
+        <v>20.06137334839108</v>
       </c>
       <c r="F19">
-        <v>21.10829064797725</v>
+        <v>21.17447169905243</v>
       </c>
       <c r="G19">
-        <v>28.93005581206368</v>
+        <v>29.50408231857221</v>
       </c>
       <c r="H19">
-        <v>3.00689739240532</v>
+        <v>2.96113858484473</v>
       </c>
       <c r="I19">
-        <v>3.575633366462771</v>
+        <v>3.36126085928095</v>
       </c>
       <c r="J19">
-        <v>8.190603731860401</v>
+        <v>8.921470688726689</v>
       </c>
       <c r="K19">
-        <v>14.07067341965239</v>
+        <v>13.51893651312033</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.75310858793671</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.116696918950558</v>
       </c>
       <c r="N19">
-        <v>9.600625107708993</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>15.89541732838361</v>
+        <v>9.383908255261622</v>
       </c>
       <c r="Q19">
-        <v>15.20790887941287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>15.63388555073207</v>
+      </c>
+      <c r="S19">
+        <v>15.30624046361494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.18391965625267</v>
+        <v>19.19720053311448</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.664317056355931</v>
+        <v>3.718715812995823</v>
       </c>
       <c r="E20">
-        <v>19.03130003850512</v>
+        <v>18.29996917740655</v>
       </c>
       <c r="F20">
-        <v>22.09060305192085</v>
+        <v>22.05464458515466</v>
       </c>
       <c r="G20">
-        <v>30.56480488319379</v>
+        <v>31.32013261701058</v>
       </c>
       <c r="H20">
-        <v>1.737448211649671</v>
+        <v>1.851096508532896</v>
       </c>
       <c r="I20">
-        <v>3.48367096975247</v>
+        <v>3.282197087392143</v>
       </c>
       <c r="J20">
-        <v>8.510522015889061</v>
+        <v>9.033841116126361</v>
       </c>
       <c r="K20">
-        <v>13.75952656500122</v>
+        <v>13.27864885693332</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.63382610624783</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.876854952005306</v>
       </c>
       <c r="N20">
-        <v>11.1060343945546</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>15.40249156809701</v>
+        <v>10.96623524396501</v>
       </c>
       <c r="Q20">
-        <v>15.9774175211177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>15.24147557585004</v>
+      </c>
+      <c r="S20">
+        <v>15.98574266153089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.33804504891167</v>
+        <v>20.28567628141705</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.832266442987019</v>
+        <v>3.960907748875316</v>
       </c>
       <c r="E21">
-        <v>19.38437796133361</v>
+        <v>18.55103503030257</v>
       </c>
       <c r="F21">
-        <v>23.47395784313651</v>
+        <v>22.98549017070128</v>
       </c>
       <c r="G21">
-        <v>32.60637108577362</v>
+        <v>35.22215081351157</v>
       </c>
       <c r="H21">
-        <v>1.942255562497716</v>
+        <v>2.037630689835411</v>
       </c>
       <c r="I21">
-        <v>3.358665776825432</v>
+        <v>3.177406606848425</v>
       </c>
       <c r="J21">
-        <v>8.827110096744072</v>
+        <v>8.106820323243232</v>
       </c>
       <c r="K21">
-        <v>13.47049609938618</v>
+        <v>13.03135132791201</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.58012276498127</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.604636182987072</v>
       </c>
       <c r="N21">
-        <v>11.82353869015492</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>15.61621489332455</v>
+        <v>11.65024663577782</v>
       </c>
       <c r="Q21">
-        <v>16.8363816725141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>15.5120905714899</v>
+      </c>
+      <c r="S21">
+        <v>16.5092271571902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.04012327386294</v>
+        <v>20.94887419439658</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.941858961155133</v>
+        <v>4.121201932900335</v>
       </c>
       <c r="E22">
-        <v>19.67364340156382</v>
+        <v>18.76562409990397</v>
       </c>
       <c r="F22">
-        <v>24.36893950756565</v>
+        <v>23.62406516455459</v>
       </c>
       <c r="G22">
-        <v>33.86002607683492</v>
+        <v>37.73159661485022</v>
       </c>
       <c r="H22">
-        <v>2.069617572252632</v>
+        <v>2.152992882807548</v>
       </c>
       <c r="I22">
-        <v>3.271109870363759</v>
+        <v>3.100465046957837</v>
       </c>
       <c r="J22">
-        <v>9.025797675174035</v>
+        <v>7.459057945985129</v>
       </c>
       <c r="K22">
-        <v>13.28832636499604</v>
+        <v>12.876541241394</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.55918790768113</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.436202321429073</v>
       </c>
       <c r="N22">
-        <v>12.20196009606792</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>15.767250256643</v>
+        <v>12.00125910386206</v>
       </c>
       <c r="Q22">
-        <v>17.45037555747602</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>15.69881725584859</v>
+      </c>
+      <c r="S22">
+        <v>16.81314749327208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.69421179820287</v>
+        <v>20.62565469833777</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.882296019896793</v>
+        <v>4.02707091299818</v>
       </c>
       <c r="E23">
-        <v>19.49790117509201</v>
+        <v>18.64635596818268</v>
       </c>
       <c r="F23">
-        <v>23.90178849827296</v>
+        <v>23.33127569517998</v>
       </c>
       <c r="G23">
-        <v>33.20813912172852</v>
+        <v>36.21294112431808</v>
       </c>
       <c r="H23">
-        <v>2.002513333813498</v>
+        <v>2.09291557613088</v>
       </c>
       <c r="I23">
-        <v>3.307080218755778</v>
+        <v>3.128330794577419</v>
       </c>
       <c r="J23">
-        <v>8.922931802519239</v>
+        <v>7.932728856061027</v>
       </c>
       <c r="K23">
-        <v>13.38323144854096</v>
+        <v>12.95594879886665</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.56527964545401</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.525216834474254</v>
       </c>
       <c r="N23">
-        <v>11.99055220120216</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>15.67122531894596</v>
+        <v>11.81163230891849</v>
       </c>
       <c r="Q23">
-        <v>17.11020879967894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>15.58229068973426</v>
+      </c>
+      <c r="S23">
+        <v>16.69226780536302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.27778634372283</v>
+        <v>19.27832395703728</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.650687392835176</v>
+        <v>3.705329120105495</v>
       </c>
       <c r="E24">
-        <v>18.85860104127192</v>
+        <v>18.13677797125026</v>
       </c>
       <c r="F24">
-        <v>22.12523938753488</v>
+        <v>22.08866360305878</v>
       </c>
       <c r="G24">
-        <v>30.62842835635355</v>
+        <v>31.35857711130699</v>
       </c>
       <c r="H24">
-        <v>1.741984124184579</v>
+        <v>1.856052310748812</v>
       </c>
       <c r="I24">
-        <v>3.464436370381295</v>
+        <v>3.259865334437402</v>
       </c>
       <c r="J24">
-        <v>8.527408296847684</v>
+        <v>9.059037268934858</v>
       </c>
       <c r="K24">
-        <v>13.75349323947755</v>
+        <v>13.27437788264859</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.62970732401094</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.873827086505187</v>
       </c>
       <c r="N24">
-        <v>11.17444268203876</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>15.33403614689392</v>
+        <v>11.04151610726852</v>
       </c>
       <c r="Q24">
-        <v>16.01269634338309</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>15.17998036693788</v>
+      </c>
+      <c r="S24">
+        <v>16.02033188423993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.61117621346843</v>
+        <v>17.64397391976269</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.383241825686969</v>
+        <v>3.425039856630759</v>
       </c>
       <c r="E25">
-        <v>18.1501753265421</v>
+        <v>17.39422357171656</v>
       </c>
       <c r="F25">
-        <v>20.22944088381913</v>
+        <v>20.26593009270058</v>
       </c>
       <c r="G25">
-        <v>27.65146591493476</v>
+        <v>28.11922054322126</v>
       </c>
       <c r="H25">
-        <v>1.674929919653278</v>
+        <v>1.581227570112618</v>
       </c>
       <c r="I25">
-        <v>3.643258881669906</v>
+        <v>3.414164313303855</v>
       </c>
       <c r="J25">
-        <v>8.10051040363456</v>
+        <v>8.804571182944757</v>
       </c>
       <c r="K25">
-        <v>14.16869155239804</v>
+        <v>13.64201351966498</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.76121560617539</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.280844709280361</v>
       </c>
       <c r="N25">
-        <v>10.2242187589993</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>14.97432644974322</v>
+        <v>10.10831070084761</v>
       </c>
       <c r="Q25">
-        <v>14.80311105746713</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.77652492351997</v>
+      </c>
+      <c r="S25">
+        <v>14.87244765607923</v>
       </c>
     </row>
   </sheetData>
